--- a/output/Kenya_formatted.xlsx
+++ b/output/Kenya_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">Additional source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potential_duplication</t>
   </si>
   <si>
     <t xml:space="preserve">KEN</t>
@@ -1145,22 +1148,25 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -1170,10 +1176,10 @@
         <v>43164</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
@@ -1238,22 +1244,25 @@
       <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2"/>
+      <c r="AJ2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -1263,10 +1272,10 @@
         <v>43164</v>
       </c>
       <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
         <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -1331,22 +1340,25 @@
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
+      <c r="AJ3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -1356,10 +1368,10 @@
         <v>42810</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="n">
         <v>0.494661</v>
@@ -1428,22 +1440,25 @@
       <c r="AG4"/>
       <c r="AH4"/>
       <c r="AI4"/>
+      <c r="AJ4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1453,10 +1468,10 @@
         <v>42810</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" t="n">
         <v>0.18</v>
@@ -1525,22 +1540,25 @@
       <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
+      <c r="AJ5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -1550,10 +1568,10 @@
         <v>43136</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
@@ -1618,22 +1636,25 @@
       <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
+      <c r="AJ6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -1643,10 +1664,10 @@
         <v>43014</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -1711,22 +1732,25 @@
       <c r="AG7"/>
       <c r="AH7"/>
       <c r="AI7"/>
+      <c r="AJ7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -1736,10 +1760,10 @@
         <v>43136</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -1804,22 +1828,25 @@
       <c r="AG8"/>
       <c r="AH8"/>
       <c r="AI8"/>
+      <c r="AJ8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -1829,10 +1856,10 @@
         <v>42940</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1897,22 +1924,25 @@
       <c r="AG9"/>
       <c r="AH9"/>
       <c r="AI9"/>
+      <c r="AJ9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -1922,10 +1952,10 @@
         <v>42851</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" t="n">
         <v>0.5</v>
@@ -1994,22 +2024,25 @@
       <c r="AG10"/>
       <c r="AH10"/>
       <c r="AI10"/>
+      <c r="AJ10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -2019,10 +2052,10 @@
         <v>43091</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="n">
         <v>1.5</v>
@@ -2091,22 +2124,25 @@
       <c r="AG11"/>
       <c r="AH11"/>
       <c r="AI11"/>
+      <c r="AJ11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
@@ -2116,10 +2152,10 @@
         <v>43027</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
@@ -2184,22 +2220,25 @@
       <c r="AG12"/>
       <c r="AH12"/>
       <c r="AI12"/>
+      <c r="AJ12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -2209,10 +2248,10 @@
         <v>42929</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" t="n">
         <v>0.00747</v>
@@ -2281,22 +2320,25 @@
       <c r="AG13"/>
       <c r="AH13"/>
       <c r="AI13"/>
+      <c r="AJ13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -2306,10 +2348,10 @@
         <v>42857</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
@@ -2374,22 +2416,25 @@
       <c r="AG14"/>
       <c r="AH14"/>
       <c r="AI14"/>
+      <c r="AJ14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
@@ -2399,10 +2444,10 @@
         <v>43049</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15" t="n">
         <v>2.6</v>
@@ -2471,22 +2516,25 @@
       <c r="AG15"/>
       <c r="AH15"/>
       <c r="AI15"/>
+      <c r="AJ15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
@@ -2496,10 +2544,10 @@
         <v>42850</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K16" t="n">
         <v>0.086</v>
@@ -2568,22 +2616,25 @@
       <c r="AG16"/>
       <c r="AH16"/>
       <c r="AI16"/>
+      <c r="AJ16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
@@ -2593,10 +2644,10 @@
         <v>43027</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -2661,22 +2712,25 @@
       <c r="AG17"/>
       <c r="AH17"/>
       <c r="AI17"/>
+      <c r="AJ17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
@@ -2686,10 +2740,10 @@
         <v>42929</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K18" t="n">
         <v>0.00249</v>
@@ -2758,22 +2812,25 @@
       <c r="AG18"/>
       <c r="AH18"/>
       <c r="AI18"/>
+      <c r="AJ18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
@@ -2783,10 +2840,10 @@
         <v>43027</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -2855,22 +2912,25 @@
       <c r="AG19"/>
       <c r="AH19"/>
       <c r="AI19"/>
+      <c r="AJ19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
@@ -2880,10 +2940,10 @@
         <v>43060</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -2948,22 +3008,25 @@
       <c r="AG20"/>
       <c r="AH20"/>
       <c r="AI20"/>
+      <c r="AJ20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
@@ -2973,10 +3036,10 @@
         <v>42942</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -3041,22 +3104,25 @@
       <c r="AG21"/>
       <c r="AH21"/>
       <c r="AI21"/>
+      <c r="AJ21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
@@ -3066,10 +3132,10 @@
         <v>43061</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
@@ -3134,22 +3200,25 @@
       <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
+      <c r="AJ22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
@@ -3159,10 +3228,10 @@
         <v>42846</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K23" t="n">
         <v>0.0707</v>
@@ -3231,22 +3300,25 @@
       <c r="AG23"/>
       <c r="AH23"/>
       <c r="AI23"/>
+      <c r="AJ23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
@@ -3256,10 +3328,10 @@
         <v>43060</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
@@ -3324,22 +3396,25 @@
       <c r="AG24"/>
       <c r="AH24"/>
       <c r="AI24"/>
+      <c r="AJ24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
@@ -3349,10 +3424,10 @@
         <v>43060</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -3417,22 +3492,25 @@
       <c r="AG25"/>
       <c r="AH25"/>
       <c r="AI25"/>
+      <c r="AJ25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -3442,10 +3520,10 @@
         <v>43062</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -3510,22 +3588,25 @@
       <c r="AG26"/>
       <c r="AH26"/>
       <c r="AI26"/>
+      <c r="AJ26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -3535,10 +3616,10 @@
         <v>43060</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
@@ -3603,22 +3684,25 @@
       <c r="AG27"/>
       <c r="AH27"/>
       <c r="AI27"/>
+      <c r="AJ27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
@@ -3628,10 +3712,10 @@
         <v>42850</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -3696,22 +3780,25 @@
       <c r="AG28"/>
       <c r="AH28"/>
       <c r="AI28"/>
+      <c r="AJ28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -3721,10 +3808,10 @@
         <v>42877</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
@@ -3789,22 +3876,25 @@
       <c r="AG29"/>
       <c r="AH29"/>
       <c r="AI29"/>
+      <c r="AJ29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
@@ -3814,10 +3904,10 @@
         <v>43055</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" t="n">
         <v>0.4</v>
@@ -3886,22 +3976,25 @@
       <c r="AG30"/>
       <c r="AH30"/>
       <c r="AI30"/>
+      <c r="AJ30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
@@ -3911,10 +4004,10 @@
         <v>43062</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
@@ -3979,22 +4072,25 @@
       <c r="AG31"/>
       <c r="AH31"/>
       <c r="AI31"/>
+      <c r="AJ31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
@@ -4004,10 +4100,10 @@
         <v>43060</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
@@ -4072,22 +4168,25 @@
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
+      <c r="AJ32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
@@ -4097,10 +4196,10 @@
         <v>42843</v>
       </c>
       <c r="I33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
@@ -4165,22 +4264,25 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
+      <c r="AJ33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
@@ -4190,10 +4292,10 @@
         <v>43651</v>
       </c>
       <c r="I34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -4262,22 +4364,25 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
+      <c r="AJ34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
@@ -4287,10 +4392,10 @@
         <v>43616</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K35" t="n">
         <v>0.8</v>
@@ -4359,22 +4464,25 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
+      <c r="AJ35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
@@ -4384,10 +4492,10 @@
         <v>43055</v>
       </c>
       <c r="I36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" t="n">
         <v>0.4</v>
@@ -4456,22 +4564,25 @@
       <c r="AG36"/>
       <c r="AH36"/>
       <c r="AI36"/>
+      <c r="AJ36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
@@ -4481,10 +4592,10 @@
         <v>43256</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37" t="n">
         <v>8.4</v>
@@ -4553,22 +4664,25 @@
       <c r="AG37"/>
       <c r="AH37"/>
       <c r="AI37"/>
+      <c r="AJ37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
@@ -4578,10 +4692,10 @@
         <v>43151</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
@@ -4646,22 +4760,25 @@
       <c r="AG38"/>
       <c r="AH38"/>
       <c r="AI38"/>
+      <c r="AJ38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
@@ -4671,10 +4788,10 @@
         <v>42851</v>
       </c>
       <c r="I39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
@@ -4739,22 +4856,25 @@
       <c r="AG39"/>
       <c r="AH39"/>
       <c r="AI39"/>
+      <c r="AJ39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
@@ -4764,10 +4884,10 @@
         <v>42877</v>
       </c>
       <c r="I40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
@@ -4832,22 +4952,25 @@
       <c r="AG40"/>
       <c r="AH40"/>
       <c r="AI40"/>
+      <c r="AJ40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
@@ -4857,10 +4980,10 @@
         <v>43103</v>
       </c>
       <c r="I41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -4925,22 +5048,25 @@
       <c r="AG41"/>
       <c r="AH41"/>
       <c r="AI41"/>
+      <c r="AJ41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
@@ -4950,10 +5076,10 @@
         <v>43097</v>
       </c>
       <c r="I42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K42" t="n">
         <v>1.5</v>
@@ -5022,22 +5148,25 @@
       <c r="AG42"/>
       <c r="AH42"/>
       <c r="AI42"/>
+      <c r="AJ42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
@@ -5047,10 +5176,10 @@
         <v>42853</v>
       </c>
       <c r="I43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43" t="n">
         <v>0.499691</v>
@@ -5119,22 +5248,25 @@
       <c r="AG43"/>
       <c r="AH43"/>
       <c r="AI43"/>
+      <c r="AJ43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
@@ -5144,10 +5276,10 @@
         <v>43040</v>
       </c>
       <c r="I44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
@@ -5212,22 +5344,25 @@
       <c r="AG44"/>
       <c r="AH44"/>
       <c r="AI44"/>
+      <c r="AJ44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
@@ -5237,10 +5372,10 @@
         <v>43060</v>
       </c>
       <c r="I45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -5305,22 +5440,25 @@
       <c r="AG45"/>
       <c r="AH45"/>
       <c r="AI45"/>
+      <c r="AJ45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
@@ -5330,10 +5468,10 @@
         <v>43060</v>
       </c>
       <c r="I46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
@@ -5398,22 +5536,25 @@
       <c r="AG46"/>
       <c r="AH46"/>
       <c r="AI46"/>
+      <c r="AJ46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
@@ -5423,10 +5564,10 @@
         <v>42845</v>
       </c>
       <c r="I47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47" t="n">
         <v>150</v>
@@ -5495,22 +5636,25 @@
       <c r="AG47"/>
       <c r="AH47"/>
       <c r="AI47"/>
+      <c r="AJ47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
@@ -5520,10 +5664,10 @@
         <v>43089</v>
       </c>
       <c r="I48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
@@ -5588,22 +5732,25 @@
       <c r="AG48"/>
       <c r="AH48"/>
       <c r="AI48"/>
+      <c r="AJ48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -5613,10 +5760,10 @@
         <v>43089</v>
       </c>
       <c r="I49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
@@ -5681,22 +5828,25 @@
       <c r="AG49"/>
       <c r="AH49"/>
       <c r="AI49"/>
+      <c r="AJ49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
@@ -5706,10 +5856,10 @@
         <v>42851</v>
       </c>
       <c r="I50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K50" t="n">
         <v>0.5</v>
@@ -5778,22 +5928,25 @@
       <c r="AG50"/>
       <c r="AH50"/>
       <c r="AI50"/>
+      <c r="AJ50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -5803,10 +5956,10 @@
         <v>43055</v>
       </c>
       <c r="I51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K51" t="n">
         <v>1.1</v>
@@ -5875,22 +6028,25 @@
       <c r="AG51"/>
       <c r="AH51"/>
       <c r="AI51"/>
+      <c r="AJ51" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
@@ -5900,10 +6056,10 @@
         <v>43055</v>
       </c>
       <c r="I52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K52" t="n">
         <v>1.5</v>
@@ -5972,22 +6128,25 @@
       <c r="AG52"/>
       <c r="AH52"/>
       <c r="AI52"/>
+      <c r="AJ52" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
@@ -5997,10 +6156,10 @@
         <v>43060</v>
       </c>
       <c r="I53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K53"/>
       <c r="L53"/>
@@ -6065,22 +6224,25 @@
       <c r="AG53"/>
       <c r="AH53"/>
       <c r="AI53"/>
+      <c r="AJ53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
@@ -6090,10 +6252,10 @@
         <v>43055</v>
       </c>
       <c r="I54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K54" t="n">
         <v>0.819355</v>
@@ -6162,22 +6324,25 @@
       <c r="AG54"/>
       <c r="AH54"/>
       <c r="AI54"/>
+      <c r="AJ54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
@@ -6187,10 +6352,10 @@
         <v>42860</v>
       </c>
       <c r="I55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55" t="n">
         <v>0.29</v>
@@ -6259,22 +6424,25 @@
       <c r="AG55"/>
       <c r="AH55"/>
       <c r="AI55"/>
+      <c r="AJ55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
@@ -6284,10 +6452,10 @@
         <v>43055</v>
       </c>
       <c r="I56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56" t="n">
         <v>0.060268</v>
@@ -6356,22 +6524,25 @@
       <c r="AG56"/>
       <c r="AH56"/>
       <c r="AI56"/>
+      <c r="AJ56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -6381,10 +6552,10 @@
         <v>43055</v>
       </c>
       <c r="I57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K57" t="n">
         <v>0.020377</v>
@@ -6453,22 +6624,25 @@
       <c r="AG57"/>
       <c r="AH57"/>
       <c r="AI57"/>
+      <c r="AJ57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
@@ -6478,10 +6652,10 @@
         <v>42983</v>
       </c>
       <c r="I58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K58"/>
       <c r="L58"/>
@@ -6546,22 +6720,25 @@
       <c r="AG58"/>
       <c r="AH58"/>
       <c r="AI58"/>
+      <c r="AJ58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
@@ -6571,10 +6748,10 @@
         <v>43027</v>
       </c>
       <c r="I59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K59" t="n">
         <v>0.5</v>
@@ -6643,22 +6820,25 @@
       <c r="AG59"/>
       <c r="AH59"/>
       <c r="AI59"/>
+      <c r="AJ59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
@@ -6668,10 +6848,10 @@
         <v>42867</v>
       </c>
       <c r="I60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K60" t="n">
         <v>2.5</v>
@@ -6740,22 +6920,25 @@
       <c r="AG60"/>
       <c r="AH60"/>
       <c r="AI60"/>
+      <c r="AJ60" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
@@ -6765,10 +6948,10 @@
         <v>42867</v>
       </c>
       <c r="I61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61" t="n">
         <v>7.6</v>
@@ -6837,22 +7020,25 @@
       <c r="AG61"/>
       <c r="AH61"/>
       <c r="AI61"/>
+      <c r="AJ61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
@@ -6862,10 +7048,10 @@
         <v>43077</v>
       </c>
       <c r="I62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K62" t="n">
         <v>0.32076</v>
@@ -6934,22 +7120,25 @@
       <c r="AG62"/>
       <c r="AH62"/>
       <c r="AI62"/>
+      <c r="AJ62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -6959,10 +7148,10 @@
         <v>43040</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K63"/>
       <c r="L63"/>
@@ -7027,22 +7216,25 @@
       <c r="AG63"/>
       <c r="AH63"/>
       <c r="AI63"/>
+      <c r="AJ63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -7052,10 +7244,10 @@
         <v>42873</v>
       </c>
       <c r="I64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K64" t="n">
         <v>0.758</v>
@@ -7124,22 +7316,25 @@
       <c r="AG64"/>
       <c r="AH64"/>
       <c r="AI64"/>
+      <c r="AJ64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="1" t="n">
@@ -7149,10 +7344,10 @@
         <v>42887</v>
       </c>
       <c r="I65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65" t="n">
         <v>2</v>
@@ -7221,22 +7416,25 @@
       <c r="AG65"/>
       <c r="AH65"/>
       <c r="AI65"/>
+      <c r="AJ65" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F66"/>
       <c r="G66" s="1" t="n">
@@ -7246,10 +7444,10 @@
         <v>42901</v>
       </c>
       <c r="I66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K66" t="n">
         <v>0.1</v>
@@ -7318,22 +7516,25 @@
       <c r="AG66"/>
       <c r="AH66"/>
       <c r="AI66"/>
+      <c r="AJ66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="1" t="n">
@@ -7343,10 +7544,10 @@
         <v>42999</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67" t="n">
         <v>0.5305</v>
@@ -7415,22 +7616,25 @@
       <c r="AG67"/>
       <c r="AH67"/>
       <c r="AI67"/>
+      <c r="AJ67" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68"/>
       <c r="G68" s="1" t="n">
@@ -7440,10 +7644,10 @@
         <v>43040</v>
       </c>
       <c r="I68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K68"/>
       <c r="L68"/>
@@ -7508,22 +7712,25 @@
       <c r="AG68"/>
       <c r="AH68"/>
       <c r="AI68"/>
+      <c r="AJ68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F69"/>
       <c r="G69" s="1" t="n">
@@ -7533,10 +7740,10 @@
         <v>42905</v>
       </c>
       <c r="I69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K69" t="n">
         <v>0.5</v>
@@ -7605,22 +7812,25 @@
       <c r="AG69"/>
       <c r="AH69"/>
       <c r="AI69"/>
+      <c r="AJ69" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F70"/>
       <c r="G70" s="1" t="n">
@@ -7630,10 +7840,10 @@
         <v>42940</v>
       </c>
       <c r="I70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K70"/>
       <c r="L70"/>
@@ -7698,22 +7908,25 @@
       <c r="AG70"/>
       <c r="AH70"/>
       <c r="AI70"/>
+      <c r="AJ70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F71"/>
       <c r="G71" s="1" t="n">
@@ -7723,10 +7936,10 @@
         <v>42926</v>
       </c>
       <c r="I71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -7795,22 +8008,25 @@
       <c r="AG71"/>
       <c r="AH71"/>
       <c r="AI71"/>
+      <c r="AJ71" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F72"/>
       <c r="G72" s="1" t="n">
@@ -7820,10 +8036,10 @@
         <v>43060</v>
       </c>
       <c r="I72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K72"/>
       <c r="L72"/>
@@ -7888,22 +8104,25 @@
       <c r="AG72"/>
       <c r="AH72"/>
       <c r="AI72"/>
+      <c r="AJ72" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F73"/>
       <c r="G73" s="1" t="n">
@@ -7913,10 +8132,10 @@
         <v>42942</v>
       </c>
       <c r="I73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K73"/>
       <c r="L73"/>
@@ -7981,22 +8200,25 @@
       <c r="AG73"/>
       <c r="AH73"/>
       <c r="AI73"/>
+      <c r="AJ73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F74"/>
       <c r="G74" s="1" t="n">
@@ -8006,10 +8228,10 @@
         <v>42942</v>
       </c>
       <c r="I74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K74"/>
       <c r="L74"/>
@@ -8074,22 +8296,25 @@
       <c r="AG74"/>
       <c r="AH74"/>
       <c r="AI74"/>
+      <c r="AJ74" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F75"/>
       <c r="G75" s="1" t="n">
@@ -8099,10 +8324,10 @@
         <v>42942</v>
       </c>
       <c r="I75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
@@ -8167,22 +8392,25 @@
       <c r="AG75"/>
       <c r="AH75"/>
       <c r="AI75"/>
+      <c r="AJ75" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F76"/>
       <c r="G76" s="1" t="n">
@@ -8192,10 +8420,10 @@
         <v>42942</v>
       </c>
       <c r="I76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K76"/>
       <c r="L76"/>
@@ -8260,22 +8488,25 @@
       <c r="AG76"/>
       <c r="AH76"/>
       <c r="AI76"/>
+      <c r="AJ76" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F77"/>
       <c r="G77" s="1" t="n">
@@ -8285,10 +8516,10 @@
         <v>42933</v>
       </c>
       <c r="I77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K77" t="n">
         <v>0.5</v>
@@ -8357,22 +8588,25 @@
       <c r="AG77"/>
       <c r="AH77"/>
       <c r="AI77"/>
+      <c r="AJ77" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F78"/>
       <c r="G78" s="1" t="n">
@@ -8382,10 +8616,10 @@
         <v>43011</v>
       </c>
       <c r="I78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
@@ -8450,22 +8684,25 @@
       <c r="AG78"/>
       <c r="AH78"/>
       <c r="AI78"/>
+      <c r="AJ78" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F79"/>
       <c r="G79" s="1" t="n">
@@ -8475,10 +8712,10 @@
         <v>43040</v>
       </c>
       <c r="I79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K79"/>
       <c r="L79"/>
@@ -8543,22 +8780,25 @@
       <c r="AG79"/>
       <c r="AH79"/>
       <c r="AI79"/>
+      <c r="AJ79" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E80" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F80"/>
       <c r="G80" s="1" t="n">
@@ -8568,10 +8808,10 @@
         <v>42940</v>
       </c>
       <c r="I80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K80" t="n">
         <v>0.5</v>
@@ -8640,22 +8880,25 @@
       <c r="AG80"/>
       <c r="AH80"/>
       <c r="AI80"/>
+      <c r="AJ80" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F81"/>
       <c r="G81" s="1" t="n">
@@ -8665,10 +8908,10 @@
         <v>43089</v>
       </c>
       <c r="I81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K81"/>
       <c r="L81"/>
@@ -8733,22 +8976,25 @@
       <c r="AG81"/>
       <c r="AH81"/>
       <c r="AI81"/>
+      <c r="AJ81" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="1" t="n">
@@ -8758,10 +9004,10 @@
         <v>42940</v>
       </c>
       <c r="I82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K82" t="n">
         <v>0.855</v>
@@ -8830,22 +9076,25 @@
       <c r="AG82"/>
       <c r="AH82"/>
       <c r="AI82"/>
+      <c r="AJ82" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F83"/>
       <c r="G83" s="1" t="n">
@@ -8855,10 +9104,10 @@
         <v>43091</v>
       </c>
       <c r="I83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K83" t="n">
         <v>0.2</v>
@@ -8927,22 +9176,25 @@
       <c r="AG83"/>
       <c r="AH83"/>
       <c r="AI83"/>
+      <c r="AJ83" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E84" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F84"/>
       <c r="G84" s="1" t="n">
@@ -8952,10 +9204,10 @@
         <v>43262</v>
       </c>
       <c r="I84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K84" t="n">
         <v>3</v>
@@ -9024,22 +9276,25 @@
       <c r="AG84"/>
       <c r="AH84"/>
       <c r="AI84"/>
+      <c r="AJ84" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E85" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F85"/>
       <c r="G85" s="1" t="n">
@@ -9049,10 +9304,10 @@
         <v>42971</v>
       </c>
       <c r="I85" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J85" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K85" t="n">
         <v>0.0363</v>
@@ -9121,22 +9376,25 @@
       <c r="AG85"/>
       <c r="AH85"/>
       <c r="AI85"/>
+      <c r="AJ85" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86"/>
       <c r="G86" s="1" t="n">
@@ -9146,10 +9404,10 @@
         <v>42999</v>
       </c>
       <c r="I86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K86" t="n">
         <v>0.315376</v>
@@ -9218,22 +9476,25 @@
       <c r="AG86"/>
       <c r="AH86"/>
       <c r="AI86"/>
+      <c r="AJ86" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F87"/>
       <c r="G87" s="1" t="n">
@@ -9243,10 +9504,10 @@
         <v>43040</v>
       </c>
       <c r="I87" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K87"/>
       <c r="L87"/>
@@ -9311,22 +9572,25 @@
       <c r="AG87"/>
       <c r="AH87"/>
       <c r="AI87"/>
+      <c r="AJ87" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88"/>
       <c r="G88" s="1" t="n">
@@ -9336,10 +9600,10 @@
         <v>43040</v>
       </c>
       <c r="I88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J88" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K88"/>
       <c r="L88"/>
@@ -9404,22 +9668,25 @@
       <c r="AG88"/>
       <c r="AH88"/>
       <c r="AI88"/>
+      <c r="AJ88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F89"/>
       <c r="G89" s="1" t="n">
@@ -9429,10 +9696,10 @@
         <v>43040</v>
       </c>
       <c r="I89" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J89" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K89"/>
       <c r="L89"/>
@@ -9497,22 +9764,25 @@
       <c r="AG89"/>
       <c r="AH89"/>
       <c r="AI89"/>
+      <c r="AJ89" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="1" t="n">
@@ -9522,10 +9792,10 @@
         <v>43040</v>
       </c>
       <c r="I90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K90"/>
       <c r="L90"/>
@@ -9590,22 +9860,25 @@
       <c r="AG90"/>
       <c r="AH90"/>
       <c r="AI90"/>
+      <c r="AJ90" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F91"/>
       <c r="G91" s="1" t="n">
@@ -9615,10 +9888,10 @@
         <v>43040</v>
       </c>
       <c r="I91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K91"/>
       <c r="L91"/>
@@ -9683,22 +9956,25 @@
       <c r="AG91"/>
       <c r="AH91"/>
       <c r="AI91"/>
+      <c r="AJ91" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="1" t="n">
@@ -9708,10 +9984,10 @@
         <v>43053</v>
       </c>
       <c r="I92" t="s">
+        <v>185</v>
+      </c>
+      <c r="J92" t="s">
         <v>184</v>
-      </c>
-      <c r="J92" t="s">
-        <v>183</v>
       </c>
       <c r="K92"/>
       <c r="L92"/>
@@ -9776,22 +10052,25 @@
       <c r="AG92"/>
       <c r="AH92"/>
       <c r="AI92"/>
+      <c r="AJ92" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="1" t="n">
@@ -9801,10 +10080,10 @@
         <v>43027</v>
       </c>
       <c r="I93" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K93"/>
       <c r="L93"/>
@@ -9869,22 +10148,25 @@
       <c r="AG93"/>
       <c r="AH93"/>
       <c r="AI93"/>
+      <c r="AJ93" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E94" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="1" t="n">
@@ -9894,10 +10176,10 @@
         <v>43055</v>
       </c>
       <c r="I94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K94" t="n">
         <v>4</v>
@@ -9966,22 +10248,25 @@
       <c r="AG94"/>
       <c r="AH94"/>
       <c r="AI94"/>
+      <c r="AJ94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E95" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="1" t="n">
@@ -9991,10 +10276,10 @@
         <v>43055</v>
       </c>
       <c r="I95" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K95" t="n">
         <v>4</v>
@@ -10063,22 +10348,25 @@
       <c r="AG95"/>
       <c r="AH95"/>
       <c r="AI95"/>
+      <c r="AJ95" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E96" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="1" t="n">
@@ -10088,10 +10376,10 @@
         <v>43055</v>
       </c>
       <c r="I96" t="s">
+        <v>191</v>
+      </c>
+      <c r="J96" t="s">
         <v>190</v>
-      </c>
-      <c r="J96" t="s">
-        <v>189</v>
       </c>
       <c r="K96" t="n">
         <v>3</v>
@@ -10160,22 +10448,25 @@
       <c r="AG96"/>
       <c r="AH96"/>
       <c r="AI96"/>
+      <c r="AJ96" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="1" t="n">
@@ -10185,10 +10476,10 @@
         <v>43089</v>
       </c>
       <c r="I97" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J97" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K97"/>
       <c r="L97"/>
@@ -10253,22 +10544,25 @@
       <c r="AG97"/>
       <c r="AH97"/>
       <c r="AI97"/>
+      <c r="AJ97" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="1" t="n">
@@ -10278,10 +10572,10 @@
         <v>43053</v>
       </c>
       <c r="I98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K98"/>
       <c r="L98"/>
@@ -10346,22 +10640,25 @@
       <c r="AG98"/>
       <c r="AH98"/>
       <c r="AI98"/>
+      <c r="AJ98" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="1" t="n">
@@ -10371,10 +10668,10 @@
         <v>43136</v>
       </c>
       <c r="I99" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J99" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K99"/>
       <c r="L99"/>
@@ -10439,22 +10736,25 @@
       <c r="AG99"/>
       <c r="AH99"/>
       <c r="AI99"/>
+      <c r="AJ99" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="1" t="n">
@@ -10464,10 +10764,10 @@
         <v>43136</v>
       </c>
       <c r="I100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J100" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K100"/>
       <c r="L100"/>
@@ -10532,22 +10832,25 @@
       <c r="AG100"/>
       <c r="AH100"/>
       <c r="AI100"/>
+      <c r="AJ100" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="1" t="n">
@@ -10557,10 +10860,10 @@
         <v>43136</v>
       </c>
       <c r="I101" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J101" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K101"/>
       <c r="L101"/>
@@ -10625,22 +10928,25 @@
       <c r="AG101"/>
       <c r="AH101"/>
       <c r="AI101"/>
+      <c r="AJ101" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="1" t="n">
@@ -10650,10 +10956,10 @@
         <v>43136</v>
       </c>
       <c r="I102" t="s">
+        <v>196</v>
+      </c>
+      <c r="J102" t="s">
         <v>195</v>
-      </c>
-      <c r="J102" t="s">
-        <v>194</v>
       </c>
       <c r="K102"/>
       <c r="L102"/>
@@ -10718,22 +11024,25 @@
       <c r="AG102"/>
       <c r="AH102"/>
       <c r="AI102"/>
+      <c r="AJ102" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="1" t="n">
@@ -10743,10 +11052,10 @@
         <v>43053</v>
       </c>
       <c r="I103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K103"/>
       <c r="L103"/>
@@ -10811,22 +11120,25 @@
       <c r="AG103"/>
       <c r="AH103"/>
       <c r="AI103"/>
+      <c r="AJ103" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="1" t="n">
@@ -10836,10 +11148,10 @@
         <v>43053</v>
       </c>
       <c r="I104" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J104" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K104"/>
       <c r="L104"/>
@@ -10904,22 +11216,25 @@
       <c r="AG104"/>
       <c r="AH104"/>
       <c r="AI104"/>
+      <c r="AJ104" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="1" t="n">
@@ -10929,10 +11244,10 @@
         <v>43027</v>
       </c>
       <c r="I105" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K105"/>
       <c r="L105"/>
@@ -10997,22 +11312,25 @@
       <c r="AG105"/>
       <c r="AH105"/>
       <c r="AI105"/>
+      <c r="AJ105" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="1" t="n">
@@ -11022,10 +11340,10 @@
         <v>43027</v>
       </c>
       <c r="I106" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J106" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K106"/>
       <c r="L106"/>
@@ -11090,22 +11408,25 @@
       <c r="AG106"/>
       <c r="AH106"/>
       <c r="AI106"/>
+      <c r="AJ106" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="1" t="n">
@@ -11115,10 +11436,10 @@
         <v>43076</v>
       </c>
       <c r="I107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K107"/>
       <c r="L107"/>
@@ -11183,22 +11504,25 @@
       <c r="AG107"/>
       <c r="AH107"/>
       <c r="AI107"/>
+      <c r="AJ107" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E108" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="1" t="n">
@@ -11208,10 +11532,10 @@
         <v>43089</v>
       </c>
       <c r="I108" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K108"/>
       <c r="L108"/>
@@ -11276,22 +11600,25 @@
       <c r="AG108"/>
       <c r="AH108"/>
       <c r="AI108"/>
+      <c r="AJ108" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="1" t="n">
@@ -11301,10 +11628,10 @@
         <v>43089</v>
       </c>
       <c r="I109" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K109"/>
       <c r="L109"/>
@@ -11369,22 +11696,25 @@
       <c r="AG109"/>
       <c r="AH109"/>
       <c r="AI109"/>
+      <c r="AJ109" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="1" t="n">
@@ -11394,10 +11724,10 @@
         <v>43160</v>
       </c>
       <c r="I110" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110" t="n">
         <v>2</v>
@@ -11466,22 +11796,25 @@
       <c r="AG110"/>
       <c r="AH110"/>
       <c r="AI110"/>
+      <c r="AJ110" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E111" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="1" t="n">
@@ -11491,10 +11824,10 @@
         <v>43089</v>
       </c>
       <c r="I111" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J111" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K111" t="n">
         <v>3.5</v>
@@ -11563,22 +11896,25 @@
       <c r="AG111"/>
       <c r="AH111"/>
       <c r="AI111"/>
+      <c r="AJ111" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="1" t="n">
@@ -11588,10 +11924,10 @@
         <v>43089</v>
       </c>
       <c r="I112" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J112" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K112"/>
       <c r="L112"/>
@@ -11656,22 +11992,25 @@
       <c r="AG112"/>
       <c r="AH112"/>
       <c r="AI112"/>
+      <c r="AJ112" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="1" t="n">
@@ -11681,10 +12020,10 @@
         <v>43089</v>
       </c>
       <c r="I113" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J113" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K113"/>
       <c r="L113"/>
@@ -11749,22 +12088,25 @@
       <c r="AG113"/>
       <c r="AH113"/>
       <c r="AI113"/>
+      <c r="AJ113" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="1" t="n">
@@ -11774,10 +12116,10 @@
         <v>43088</v>
       </c>
       <c r="I114" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K114" t="n">
         <v>2</v>
@@ -11846,22 +12188,25 @@
       <c r="AG114"/>
       <c r="AH114"/>
       <c r="AI114"/>
+      <c r="AJ114" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="1" t="n">
@@ -11871,10 +12216,10 @@
         <v>43286</v>
       </c>
       <c r="I115" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J115" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K115"/>
       <c r="L115"/>
@@ -11939,22 +12284,25 @@
       <c r="AG115"/>
       <c r="AH115"/>
       <c r="AI115"/>
+      <c r="AJ115" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E116" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="1" t="n">
@@ -11964,10 +12312,10 @@
         <v>43133</v>
       </c>
       <c r="I116" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J116" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K116"/>
       <c r="L116"/>
@@ -12032,22 +12380,25 @@
       <c r="AG116"/>
       <c r="AH116"/>
       <c r="AI116"/>
+      <c r="AJ116" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E117" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="1" t="n">
@@ -12057,10 +12408,10 @@
         <v>43089</v>
       </c>
       <c r="I117" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J117" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K117"/>
       <c r="L117"/>
@@ -12125,22 +12476,25 @@
       <c r="AG117"/>
       <c r="AH117"/>
       <c r="AI117"/>
+      <c r="AJ117" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="1" t="n">
@@ -12150,10 +12504,10 @@
         <v>43286</v>
       </c>
       <c r="I118" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J118" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K118"/>
       <c r="L118"/>
@@ -12218,22 +12572,25 @@
       <c r="AG118"/>
       <c r="AH118"/>
       <c r="AI118"/>
+      <c r="AJ118" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E119" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="1" t="n">
@@ -12243,10 +12600,10 @@
         <v>43650</v>
       </c>
       <c r="I119" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J119" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K119" t="n">
         <v>0.7</v>
@@ -12315,22 +12672,25 @@
       <c r="AG119"/>
       <c r="AH119"/>
       <c r="AI119"/>
+      <c r="AJ119" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="1" t="n">
@@ -12340,10 +12700,10 @@
         <v>43151</v>
       </c>
       <c r="I120" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K120" t="n">
         <v>0.5</v>
@@ -12412,22 +12772,25 @@
       <c r="AG120"/>
       <c r="AH120"/>
       <c r="AI120"/>
+      <c r="AJ120" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E121" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="1" t="n">
@@ -12437,10 +12800,10 @@
         <v>43154</v>
       </c>
       <c r="I121" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K121" t="n">
         <v>0.169</v>
@@ -12509,22 +12872,25 @@
       <c r="AG121"/>
       <c r="AH121"/>
       <c r="AI121"/>
+      <c r="AJ121" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="1" t="n">
@@ -12534,10 +12900,10 @@
         <v>43179</v>
       </c>
       <c r="I122" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K122"/>
       <c r="L122"/>
@@ -12602,22 +12968,25 @@
       <c r="AG122"/>
       <c r="AH122"/>
       <c r="AI122"/>
+      <c r="AJ122" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="1" t="n">
@@ -12627,10 +12996,10 @@
         <v>43237</v>
       </c>
       <c r="I123" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J123" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K123" t="n">
         <v>1.25</v>
@@ -12699,22 +13068,25 @@
       <c r="AG123"/>
       <c r="AH123"/>
       <c r="AI123"/>
+      <c r="AJ123" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E124" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="1" t="n">
@@ -12724,10 +13096,10 @@
         <v>43655</v>
       </c>
       <c r="I124" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J124" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K124" t="n">
         <v>1.8</v>
@@ -12796,22 +13168,25 @@
       <c r="AG124"/>
       <c r="AH124"/>
       <c r="AI124"/>
+      <c r="AJ124" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E125" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="1" t="n">
@@ -12821,10 +13196,10 @@
         <v>43703</v>
       </c>
       <c r="I125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J125" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K125" t="n">
         <v>0.667737</v>
@@ -12893,22 +13268,25 @@
       <c r="AG125"/>
       <c r="AH125"/>
       <c r="AI125"/>
+      <c r="AJ125" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E126" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="1" t="n">
@@ -12918,10 +13296,10 @@
         <v>43263</v>
       </c>
       <c r="I126" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K126" t="n">
         <v>0.2</v>
@@ -12990,22 +13368,25 @@
       <c r="AG126"/>
       <c r="AH126"/>
       <c r="AI126"/>
+      <c r="AJ126" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F127"/>
       <c r="G127" s="1" t="n">
@@ -13015,10 +13396,10 @@
         <v>43381</v>
       </c>
       <c r="I127" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K127"/>
       <c r="L127"/>
@@ -13083,6 +13464,9 @@
       <c r="AG127"/>
       <c r="AH127"/>
       <c r="AI127"/>
+      <c r="AJ127" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/Kenya_formatted.xlsx
+++ b/output/Kenya_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -104,6 +104,9 @@
     <t xml:space="preserve">May-18</t>
   </si>
   <si>
+    <t xml:space="preserve">Jun-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aug-18</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
     <t xml:space="preserve">potential_duplication</t>
   </si>
   <si>
+    <t xml:space="preserve">Flow ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">KEN</t>
   </si>
   <si>
@@ -699,6 +705,12 @@
   </si>
   <si>
     <t xml:space="preserve">7F-10048.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya/Drought: Nutrition( USAID/OFDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM180272</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya/Drought: Water, Sanitation and Hygiene,Nutrition,Agriculture and Food Security ( USAID/OFDA)</t>
@@ -1151,22 +1163,28 @@
       <c r="AJ1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -1176,10 +1194,10 @@
         <v>43164</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
@@ -1239,30 +1257,36 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>0.114983</v>
       </c>
-      <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2"/>
-      <c r="AJ2" t="b">
-        <v>0</v>
+      <c r="AJ2"/>
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>159491</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -1272,10 +1296,10 @@
         <v>43164</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -1335,30 +1359,36 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>0.021291</v>
       </c>
-      <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
-      <c r="AJ3" t="b">
-        <v>0</v>
+      <c r="AJ3"/>
+      <c r="AK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>159562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -1368,10 +1398,10 @@
         <v>42810</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K4" t="n">
         <v>0.494661</v>
@@ -1435,30 +1465,36 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>0.365333</v>
       </c>
-      <c r="AG4"/>
       <c r="AH4"/>
       <c r="AI4"/>
-      <c r="AJ4" t="b">
-        <v>0</v>
+      <c r="AJ4"/>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>153795</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1468,10 +1504,10 @@
         <v>42810</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K5" t="n">
         <v>0.18</v>
@@ -1535,30 +1571,36 @@
         <v>0</v>
       </c>
       <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0.132939</v>
       </c>
-      <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
-      <c r="AJ5" t="b">
-        <v>0</v>
+      <c r="AJ5"/>
+      <c r="AK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>153798</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -1568,10 +1610,10 @@
         <v>43136</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
@@ -1631,30 +1673,36 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>0.022629</v>
       </c>
-      <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
-      <c r="AJ6" t="b">
-        <v>0</v>
+      <c r="AJ6"/>
+      <c r="AK6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>170287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -1664,10 +1712,10 @@
         <v>43014</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -1727,30 +1775,36 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>0.089614</v>
       </c>
-      <c r="AG7"/>
       <c r="AH7"/>
       <c r="AI7"/>
-      <c r="AJ7" t="b">
-        <v>0</v>
+      <c r="AJ7"/>
+      <c r="AK7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>164594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -1760,10 +1814,10 @@
         <v>43136</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -1823,30 +1877,36 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>0.021086</v>
       </c>
-      <c r="AG8"/>
       <c r="AH8"/>
       <c r="AI8"/>
-      <c r="AJ8" t="b">
-        <v>0</v>
+      <c r="AJ8"/>
+      <c r="AK8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>170283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -1856,10 +1916,10 @@
         <v>42940</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1919,30 +1979,36 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
         <v>0.0459</v>
       </c>
-      <c r="AG9"/>
       <c r="AH9"/>
       <c r="AI9"/>
-      <c r="AJ9" t="b">
-        <v>0</v>
+      <c r="AJ9"/>
+      <c r="AK9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>161908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -1952,10 +2018,10 @@
         <v>42851</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K10" t="n">
         <v>0.5</v>
@@ -2019,30 +2085,36 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>0.533618</v>
       </c>
-      <c r="AG10"/>
       <c r="AH10"/>
       <c r="AI10"/>
-      <c r="AJ10" t="b">
-        <v>0</v>
+      <c r="AJ10"/>
+      <c r="AK10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>154448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -2052,10 +2124,10 @@
         <v>43091</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
         <v>1.5</v>
@@ -2119,30 +2191,36 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>0.21398</v>
       </c>
-      <c r="AG11"/>
       <c r="AH11"/>
       <c r="AI11"/>
-      <c r="AJ11" t="b">
-        <v>0</v>
+      <c r="AJ11"/>
+      <c r="AK11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>155287</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
@@ -2152,10 +2230,10 @@
         <v>43027</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
@@ -2215,30 +2293,36 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>0.006246</v>
       </c>
-      <c r="AG12"/>
       <c r="AH12"/>
       <c r="AI12"/>
-      <c r="AJ12" t="b">
-        <v>0</v>
+      <c r="AJ12"/>
+      <c r="AK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>157331</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -2248,10 +2332,10 @@
         <v>42929</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K13" t="n">
         <v>0.00747</v>
@@ -2315,30 +2399,36 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>0.024492</v>
       </c>
-      <c r="AG13"/>
       <c r="AH13"/>
       <c r="AI13"/>
-      <c r="AJ13" t="b">
-        <v>0</v>
+      <c r="AJ13"/>
+      <c r="AK13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>161435</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -2348,10 +2438,10 @@
         <v>42857</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
@@ -2411,30 +2501,36 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
         <v>1.938</v>
       </c>
-      <c r="AG14"/>
       <c r="AH14"/>
       <c r="AI14"/>
-      <c r="AJ14" t="b">
-        <v>0</v>
+      <c r="AJ14"/>
+      <c r="AK14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>157690</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
@@ -2444,10 +2540,10 @@
         <v>43049</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K15" t="n">
         <v>2.6</v>
@@ -2511,30 +2607,36 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
         <v>0.287642</v>
       </c>
-      <c r="AG15"/>
       <c r="AH15"/>
       <c r="AI15"/>
-      <c r="AJ15" t="b">
-        <v>0</v>
+      <c r="AJ15"/>
+      <c r="AK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>154850</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
@@ -2544,10 +2646,10 @@
         <v>42850</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K16" t="n">
         <v>0.086</v>
@@ -2611,30 +2713,36 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>0.091198</v>
       </c>
-      <c r="AG16"/>
       <c r="AH16"/>
       <c r="AI16"/>
-      <c r="AJ16" t="b">
-        <v>0</v>
+      <c r="AJ16"/>
+      <c r="AK16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>155389</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
@@ -2644,10 +2752,10 @@
         <v>43027</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -2707,30 +2815,36 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG17"/>
       <c r="AH17"/>
       <c r="AI17"/>
-      <c r="AJ17" t="b">
-        <v>0</v>
+      <c r="AJ17"/>
+      <c r="AK17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>157330</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
@@ -2740,10 +2854,10 @@
         <v>42929</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K18" t="n">
         <v>0.00249</v>
@@ -2807,30 +2921,36 @@
         <v>0</v>
       </c>
       <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>0.008164</v>
       </c>
-      <c r="AG18"/>
       <c r="AH18"/>
       <c r="AI18"/>
-      <c r="AJ18" t="b">
-        <v>0</v>
+      <c r="AJ18"/>
+      <c r="AK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>161436</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
@@ -2840,10 +2960,10 @@
         <v>43027</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -2907,30 +3027,36 @@
         <v>0</v>
       </c>
       <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
         <v>0.743494</v>
       </c>
-      <c r="AG19"/>
       <c r="AH19"/>
       <c r="AI19"/>
-      <c r="AJ19" t="b">
-        <v>0</v>
+      <c r="AJ19"/>
+      <c r="AK19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>156614</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
@@ -2940,10 +3066,10 @@
         <v>43060</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -3003,30 +3129,36 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
         <v>0.24035</v>
       </c>
-      <c r="AG20"/>
       <c r="AH20"/>
       <c r="AI20"/>
-      <c r="AJ20" t="b">
-        <v>0</v>
+      <c r="AJ20"/>
+      <c r="AK20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>159909</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
@@ -3036,10 +3168,10 @@
         <v>42942</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -3099,30 +3231,36 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
         <v>0.25965</v>
       </c>
-      <c r="AG21"/>
       <c r="AH21"/>
       <c r="AI21"/>
-      <c r="AJ21" t="b">
-        <v>0</v>
+      <c r="AJ21"/>
+      <c r="AK21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>162026</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
@@ -3132,10 +3270,10 @@
         <v>43061</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
@@ -3195,30 +3333,36 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
         <v>1.85</v>
       </c>
-      <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
-      <c r="AJ22" t="b">
-        <v>0</v>
+      <c r="AJ22"/>
+      <c r="AK22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>159959</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
@@ -3228,10 +3372,10 @@
         <v>42846</v>
       </c>
       <c r="I23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K23" t="n">
         <v>0.0707</v>
@@ -3295,30 +3439,36 @@
         <v>0</v>
       </c>
       <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
         <v>0.052565</v>
       </c>
-      <c r="AG23"/>
       <c r="AH23"/>
       <c r="AI23"/>
-      <c r="AJ23" t="b">
-        <v>0</v>
+      <c r="AJ23"/>
+      <c r="AK23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>154754</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
@@ -3328,10 +3478,10 @@
         <v>43060</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
@@ -3391,30 +3541,36 @@
         <v>0</v>
       </c>
       <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
         <v>0.373533</v>
       </c>
-      <c r="AG24"/>
       <c r="AH24"/>
       <c r="AI24"/>
-      <c r="AJ24" t="b">
-        <v>0</v>
+      <c r="AJ24"/>
+      <c r="AK24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>159910</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
@@ -3424,10 +3580,10 @@
         <v>43060</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -3487,30 +3643,36 @@
         <v>0</v>
       </c>
       <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
         <v>0.106724</v>
       </c>
-      <c r="AG25"/>
       <c r="AH25"/>
       <c r="AI25"/>
-      <c r="AJ25" t="b">
-        <v>0</v>
+      <c r="AJ25"/>
+      <c r="AK25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>159911</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -3520,10 +3682,10 @@
         <v>43062</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -3583,30 +3745,36 @@
         <v>0</v>
       </c>
       <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
         <v>0.140499</v>
       </c>
-      <c r="AG26"/>
       <c r="AH26"/>
       <c r="AI26"/>
-      <c r="AJ26" t="b">
-        <v>0</v>
+      <c r="AJ26"/>
+      <c r="AK26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>157168</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -3616,10 +3784,10 @@
         <v>43060</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
@@ -3679,30 +3847,36 @@
         <v>0</v>
       </c>
       <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
         <v>1.500048</v>
       </c>
-      <c r="AG27"/>
       <c r="AH27"/>
       <c r="AI27"/>
-      <c r="AJ27" t="b">
-        <v>0</v>
+      <c r="AJ27"/>
+      <c r="AK27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>156567</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
@@ -3712,10 +3886,10 @@
         <v>42850</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -3775,30 +3949,36 @@
         <v>0</v>
       </c>
       <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
         <v>0.290184</v>
       </c>
-      <c r="AG28"/>
       <c r="AH28"/>
       <c r="AI28"/>
-      <c r="AJ28" t="b">
-        <v>0</v>
+      <c r="AJ28"/>
+      <c r="AK28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>156568</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -3808,10 +3988,10 @@
         <v>42877</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
@@ -3871,30 +4051,36 @@
         <v>0</v>
       </c>
       <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
         <v>0.200041</v>
       </c>
-      <c r="AG29"/>
       <c r="AH29"/>
       <c r="AI29"/>
-      <c r="AJ29" t="b">
-        <v>0</v>
+      <c r="AJ29"/>
+      <c r="AK29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>156569</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
@@ -3904,10 +4090,10 @@
         <v>43055</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K30" t="n">
         <v>0.4</v>
@@ -3971,30 +4157,36 @@
         <v>0</v>
       </c>
       <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
         <v>0.429646</v>
       </c>
-      <c r="AG30"/>
       <c r="AH30"/>
       <c r="AI30"/>
-      <c r="AJ30" t="b">
-        <v>0</v>
+      <c r="AJ30"/>
+      <c r="AK30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>156650</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
@@ -4004,10 +4196,10 @@
         <v>43062</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
@@ -4067,30 +4259,36 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
         <v>1.5</v>
       </c>
-      <c r="AG31"/>
       <c r="AH31"/>
       <c r="AI31"/>
-      <c r="AJ31" t="b">
-        <v>0</v>
+      <c r="AJ31"/>
+      <c r="AK31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>156686</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
@@ -4100,10 +4298,10 @@
         <v>43060</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
@@ -4163,30 +4361,36 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
         <v>4.000132</v>
       </c>
-      <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" t="b">
-        <v>0</v>
+      <c r="AJ32"/>
+      <c r="AK32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>156687</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
@@ -4196,10 +4400,10 @@
         <v>42843</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
@@ -4259,30 +4463,36 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
         <v>1.800128</v>
       </c>
-      <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" t="b">
-        <v>0</v>
+      <c r="AJ33"/>
+      <c r="AK33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>156688</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
@@ -4292,10 +4502,10 @@
         <v>43651</v>
       </c>
       <c r="I34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -4359,30 +4569,36 @@
         <v>0</v>
       </c>
       <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
         <v>1.074114</v>
       </c>
-      <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" t="b">
-        <v>0</v>
+      <c r="AJ34"/>
+      <c r="AK34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>157141</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
@@ -4392,10 +4608,10 @@
         <v>43616</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K35" t="n">
         <v>0.8</v>
@@ -4459,30 +4675,36 @@
         <v>0</v>
       </c>
       <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
         <v>0.859291</v>
       </c>
-      <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" t="b">
-        <v>0</v>
+      <c r="AJ35"/>
+      <c r="AK35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>158781</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
@@ -4492,10 +4714,10 @@
         <v>43055</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K36" t="n">
         <v>0.4</v>
@@ -4559,30 +4781,36 @@
         <v>0</v>
       </c>
       <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
         <v>0.429646</v>
       </c>
-      <c r="AG36"/>
       <c r="AH36"/>
       <c r="AI36"/>
-      <c r="AJ36" t="b">
-        <v>0</v>
+      <c r="AJ36"/>
+      <c r="AK36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>162028</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
@@ -4592,10 +4820,10 @@
         <v>43256</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K37" t="n">
         <v>8.4</v>
@@ -4659,30 +4887,36 @@
         <v>0</v>
       </c>
       <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
         <v>1.212821</v>
       </c>
-      <c r="AG37"/>
       <c r="AH37"/>
       <c r="AI37"/>
-      <c r="AJ37" t="b">
-        <v>0</v>
+      <c r="AJ37"/>
+      <c r="AK37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>157328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
@@ -4692,10 +4926,10 @@
         <v>43151</v>
       </c>
       <c r="I38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
@@ -4755,30 +4989,36 @@
         <v>0</v>
       </c>
       <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
         <v>1.500048</v>
       </c>
-      <c r="AG38"/>
       <c r="AH38"/>
       <c r="AI38"/>
-      <c r="AJ38" t="b">
-        <v>0</v>
+      <c r="AJ38"/>
+      <c r="AK38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>168035</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
@@ -4788,10 +5028,10 @@
         <v>42851</v>
       </c>
       <c r="I39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
@@ -4851,30 +5091,36 @@
         <v>0</v>
       </c>
       <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
         <v>0.217211</v>
       </c>
-      <c r="AG39"/>
       <c r="AH39"/>
       <c r="AI39"/>
-      <c r="AJ39" t="b">
-        <v>0</v>
+      <c r="AJ39"/>
+      <c r="AK39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>156798</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
@@ -4884,10 +5130,10 @@
         <v>42877</v>
       </c>
       <c r="I40" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
@@ -4947,30 +5193,36 @@
         <v>0</v>
       </c>
       <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
         <v>0.171531</v>
       </c>
-      <c r="AG40"/>
       <c r="AH40"/>
       <c r="AI40"/>
-      <c r="AJ40" t="b">
-        <v>0</v>
+      <c r="AJ40"/>
+      <c r="AK40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>156799</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
@@ -4980,10 +5232,10 @@
         <v>43103</v>
       </c>
       <c r="I41" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -5043,30 +5295,36 @@
         <v>0</v>
       </c>
       <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
         <v>0.649993</v>
       </c>
-      <c r="AG41"/>
       <c r="AH41"/>
       <c r="AI41"/>
-      <c r="AJ41" t="b">
-        <v>0</v>
+      <c r="AJ41"/>
+      <c r="AK41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>156800</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
@@ -5076,10 +5334,10 @@
         <v>43097</v>
       </c>
       <c r="I42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K42" t="n">
         <v>1.5</v>
@@ -5143,30 +5401,36 @@
         <v>0</v>
       </c>
       <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
         <v>1.611171</v>
       </c>
-      <c r="AG42"/>
       <c r="AH42"/>
       <c r="AI42"/>
-      <c r="AJ42" t="b">
-        <v>0</v>
+      <c r="AJ42"/>
+      <c r="AK42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>157307</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
@@ -5176,10 +5440,10 @@
         <v>42853</v>
       </c>
       <c r="I43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K43" t="n">
         <v>0.499691</v>
@@ -5243,30 +5507,36 @@
         <v>0</v>
       </c>
       <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
         <v>0.374581</v>
       </c>
-      <c r="AG43"/>
       <c r="AH43"/>
       <c r="AI43"/>
-      <c r="AJ43" t="b">
-        <v>0</v>
+      <c r="AJ43"/>
+      <c r="AK43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>157573</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
@@ -5276,10 +5546,10 @@
         <v>43040</v>
       </c>
       <c r="I44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J44" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
@@ -5339,30 +5609,36 @@
         <v>0</v>
       </c>
       <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
         <v>0.75</v>
       </c>
-      <c r="AG44"/>
       <c r="AH44"/>
       <c r="AI44"/>
-      <c r="AJ44" t="b">
-        <v>0</v>
+      <c r="AJ44"/>
+      <c r="AK44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>158984</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
@@ -5372,10 +5648,10 @@
         <v>43060</v>
       </c>
       <c r="I45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -5435,30 +5711,36 @@
         <v>0</v>
       </c>
       <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
         <v>1.867995</v>
       </c>
-      <c r="AG45"/>
       <c r="AH45"/>
       <c r="AI45"/>
-      <c r="AJ45" t="b">
-        <v>0</v>
+      <c r="AJ45"/>
+      <c r="AK45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>159913</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
@@ -5468,10 +5750,10 @@
         <v>43060</v>
       </c>
       <c r="I46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
@@ -5531,30 +5813,36 @@
         <v>0</v>
       </c>
       <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
         <v>3.113325</v>
       </c>
-      <c r="AG46"/>
       <c r="AH46"/>
       <c r="AI46"/>
-      <c r="AJ46" t="b">
-        <v>0</v>
+      <c r="AJ46"/>
+      <c r="AK46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>159914</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
@@ -5564,10 +5852,10 @@
         <v>42845</v>
       </c>
       <c r="I47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K47" t="n">
         <v>150</v>
@@ -5631,30 +5919,36 @@
         <v>0</v>
       </c>
       <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
         <v>21.770682</v>
       </c>
-      <c r="AG47"/>
       <c r="AH47"/>
       <c r="AI47"/>
-      <c r="AJ47" t="b">
-        <v>0</v>
+      <c r="AJ47"/>
+      <c r="AK47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>157218</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
@@ -5664,10 +5958,10 @@
         <v>43089</v>
       </c>
       <c r="I48" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
@@ -5727,30 +6021,36 @@
         <v>0</v>
       </c>
       <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
         <v>0.228337</v>
       </c>
-      <c r="AG48"/>
       <c r="AH48"/>
       <c r="AI48"/>
-      <c r="AJ48" t="b">
-        <v>0</v>
+      <c r="AJ48"/>
+      <c r="AK48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>157333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -5760,10 +6060,10 @@
         <v>43089</v>
       </c>
       <c r="I49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
@@ -5823,30 +6123,36 @@
         <v>0</v>
       </c>
       <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
         <v>4.066</v>
       </c>
-      <c r="AG49"/>
       <c r="AH49"/>
       <c r="AI49"/>
-      <c r="AJ49" t="b">
-        <v>0</v>
+      <c r="AJ49"/>
+      <c r="AK49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>157334</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
@@ -5856,10 +6162,10 @@
         <v>42851</v>
       </c>
       <c r="I50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K50" t="n">
         <v>0.5</v>
@@ -5923,30 +6229,36 @@
         <v>0</v>
       </c>
       <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
         <v>0.072192</v>
       </c>
-      <c r="AG50"/>
       <c r="AH50"/>
       <c r="AI50"/>
-      <c r="AJ50" t="b">
-        <v>0</v>
+      <c r="AJ50"/>
+      <c r="AK50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>157434</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -5956,10 +6268,10 @@
         <v>43055</v>
       </c>
       <c r="I51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K51" t="n">
         <v>1.1</v>
@@ -6023,30 +6335,36 @@
         <v>0</v>
       </c>
       <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
         <v>1.181525</v>
       </c>
-      <c r="AG51"/>
       <c r="AH51"/>
       <c r="AI51"/>
-      <c r="AJ51" t="b">
-        <v>0</v>
+      <c r="AJ51"/>
+      <c r="AK51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>157444</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
@@ -6056,10 +6374,10 @@
         <v>43055</v>
       </c>
       <c r="I52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J52" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K52" t="n">
         <v>1.5</v>
@@ -6123,30 +6441,36 @@
         <v>0</v>
       </c>
       <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
         <v>1.611171</v>
       </c>
-      <c r="AG52"/>
       <c r="AH52"/>
       <c r="AI52"/>
-      <c r="AJ52" t="b">
-        <v>0</v>
+      <c r="AJ52"/>
+      <c r="AK52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>157446</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
@@ -6156,10 +6480,10 @@
         <v>43060</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K53"/>
       <c r="L53"/>
@@ -6219,30 +6543,36 @@
         <v>0</v>
       </c>
       <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
         <v>0.265393</v>
       </c>
-      <c r="AG53"/>
       <c r="AH53"/>
       <c r="AI53"/>
-      <c r="AJ53" t="b">
-        <v>0</v>
+      <c r="AJ53"/>
+      <c r="AK53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>159912</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
@@ -6252,10 +6582,10 @@
         <v>43055</v>
       </c>
       <c r="I54" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K54" t="n">
         <v>0.819355</v>
@@ -6319,30 +6649,36 @@
         <v>0</v>
       </c>
       <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
         <v>0.880081</v>
       </c>
-      <c r="AG54"/>
       <c r="AH54"/>
       <c r="AI54"/>
-      <c r="AJ54" t="b">
-        <v>0</v>
+      <c r="AJ54"/>
+      <c r="AK54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>157663</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
@@ -6352,10 +6688,10 @@
         <v>42860</v>
       </c>
       <c r="I55" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K55" t="n">
         <v>0.29</v>
@@ -6419,30 +6755,36 @@
         <v>0</v>
       </c>
       <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
         <v>0.032573</v>
       </c>
-      <c r="AG55"/>
       <c r="AH55"/>
       <c r="AI55"/>
-      <c r="AJ55" t="b">
-        <v>0</v>
+      <c r="AJ55"/>
+      <c r="AK55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>157899</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
@@ -6452,10 +6794,10 @@
         <v>43055</v>
       </c>
       <c r="I56" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K56" t="n">
         <v>0.060268</v>
@@ -6519,30 +6861,36 @@
         <v>0</v>
       </c>
       <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
         <v>0.064735</v>
       </c>
-      <c r="AG56"/>
       <c r="AH56"/>
       <c r="AI56"/>
-      <c r="AJ56" t="b">
-        <v>0</v>
+      <c r="AJ56"/>
+      <c r="AK56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>158117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -6552,10 +6900,10 @@
         <v>43055</v>
       </c>
       <c r="I57" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K57" t="n">
         <v>0.020377</v>
@@ -6619,30 +6967,36 @@
         <v>0</v>
       </c>
       <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
         <v>0.021399</v>
       </c>
-      <c r="AG57"/>
       <c r="AH57"/>
       <c r="AI57"/>
-      <c r="AJ57" t="b">
-        <v>0</v>
+      <c r="AJ57"/>
+      <c r="AK57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>159022</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
@@ -6652,10 +7006,10 @@
         <v>42983</v>
       </c>
       <c r="I58" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K58"/>
       <c r="L58"/>
@@ -6715,30 +7069,36 @@
         <v>0</v>
       </c>
       <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG58"/>
       <c r="AH58"/>
       <c r="AI58"/>
-      <c r="AJ58" t="b">
-        <v>0</v>
+      <c r="AJ58"/>
+      <c r="AK58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>163378</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
@@ -6748,10 +7108,10 @@
         <v>43027</v>
       </c>
       <c r="I59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K59" t="n">
         <v>0.5</v>
@@ -6815,30 +7175,36 @@
         <v>0</v>
       </c>
       <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
         <v>0.55991</v>
       </c>
-      <c r="AG59"/>
       <c r="AH59"/>
       <c r="AI59"/>
-      <c r="AJ59" t="b">
-        <v>0</v>
+      <c r="AJ59"/>
+      <c r="AK59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>163748</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
@@ -6848,10 +7214,10 @@
         <v>42867</v>
       </c>
       <c r="I60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K60" t="n">
         <v>2.5</v>
@@ -6915,30 +7281,36 @@
         <v>0</v>
       </c>
       <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
         <v>0.281849</v>
       </c>
-      <c r="AG60"/>
       <c r="AH60"/>
       <c r="AI60"/>
-      <c r="AJ60" t="b">
-        <v>0</v>
+      <c r="AJ60"/>
+      <c r="AK60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>158221</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
@@ -6948,10 +7320,10 @@
         <v>42867</v>
       </c>
       <c r="I61" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K61" t="n">
         <v>7.6</v>
@@ -7015,30 +7387,36 @@
         <v>0</v>
       </c>
       <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
         <v>0.856821</v>
       </c>
-      <c r="AG61"/>
       <c r="AH61"/>
       <c r="AI61"/>
-      <c r="AJ61" t="b">
-        <v>0</v>
+      <c r="AJ61"/>
+      <c r="AK61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>158222</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
@@ -7048,10 +7426,10 @@
         <v>43077</v>
       </c>
       <c r="I62" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J62" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K62" t="n">
         <v>0.32076</v>
@@ -7115,30 +7493,36 @@
         <v>0</v>
       </c>
       <c r="AF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="n">
         <v>0.348274</v>
       </c>
-      <c r="AG62"/>
       <c r="AH62"/>
       <c r="AI62"/>
-      <c r="AJ62" t="b">
-        <v>0</v>
+      <c r="AJ62"/>
+      <c r="AK62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>158187</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -7148,10 +7532,10 @@
         <v>43040</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J63" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K63"/>
       <c r="L63"/>
@@ -7211,30 +7595,36 @@
         <v>0</v>
       </c>
       <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
         <v>0.75</v>
       </c>
-      <c r="AG63"/>
       <c r="AH63"/>
       <c r="AI63"/>
-      <c r="AJ63" t="b">
-        <v>0</v>
+      <c r="AJ63"/>
+      <c r="AK63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>164593</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -7244,10 +7634,10 @@
         <v>42873</v>
       </c>
       <c r="I64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K64" t="n">
         <v>0.758</v>
@@ -7311,30 +7701,36 @@
         <v>0</v>
       </c>
       <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
         <v>0.085457</v>
       </c>
-      <c r="AG64"/>
       <c r="AH64"/>
       <c r="AI64"/>
-      <c r="AJ64" t="b">
-        <v>0</v>
+      <c r="AJ64"/>
+      <c r="AK64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>158417</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="1" t="n">
@@ -7344,10 +7740,10 @@
         <v>42887</v>
       </c>
       <c r="I65" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K65" t="n">
         <v>2</v>
@@ -7411,30 +7807,36 @@
         <v>0</v>
       </c>
       <c r="AF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="n">
         <v>0.225479</v>
       </c>
-      <c r="AG65"/>
       <c r="AH65"/>
       <c r="AI65"/>
-      <c r="AJ65" t="b">
-        <v>0</v>
+      <c r="AJ65"/>
+      <c r="AK65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>159194</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F66"/>
       <c r="G66" s="1" t="n">
@@ -7444,10 +7846,10 @@
         <v>42901</v>
       </c>
       <c r="I66" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J66" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K66" t="n">
         <v>0.1</v>
@@ -7511,30 +7913,36 @@
         <v>0</v>
       </c>
       <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
         <v>0.108578</v>
       </c>
-      <c r="AG66"/>
       <c r="AH66"/>
       <c r="AI66"/>
-      <c r="AJ66" t="b">
-        <v>0</v>
+      <c r="AJ66"/>
+      <c r="AK66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>160159</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="1" t="n">
@@ -7544,10 +7952,10 @@
         <v>42999</v>
       </c>
       <c r="I67" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K67" t="n">
         <v>0.5305</v>
@@ -7611,30 +8019,36 @@
         <v>0</v>
       </c>
       <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
         <v>0.389501</v>
       </c>
-      <c r="AG67"/>
       <c r="AH67"/>
       <c r="AI67"/>
-      <c r="AJ67" t="b">
-        <v>0</v>
+      <c r="AJ67"/>
+      <c r="AK67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>163971</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F68"/>
       <c r="G68" s="1" t="n">
@@ -7644,10 +8058,10 @@
         <v>43040</v>
       </c>
       <c r="I68" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J68" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K68"/>
       <c r="L68"/>
@@ -7707,30 +8121,36 @@
         <v>0</v>
       </c>
       <c r="AF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="n">
         <v>0.500188</v>
       </c>
-      <c r="AG68"/>
       <c r="AH68"/>
       <c r="AI68"/>
-      <c r="AJ68" t="b">
-        <v>0</v>
+      <c r="AJ68"/>
+      <c r="AK68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>165485</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F69"/>
       <c r="G69" s="1" t="n">
@@ -7740,10 +8160,10 @@
         <v>42905</v>
       </c>
       <c r="I69" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J69" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K69" t="n">
         <v>0.5</v>
@@ -7807,30 +8227,36 @@
         <v>0</v>
       </c>
       <c r="AF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="n">
         <v>0.55991</v>
       </c>
-      <c r="AG69"/>
       <c r="AH69"/>
       <c r="AI69"/>
-      <c r="AJ69" t="b">
-        <v>0</v>
+      <c r="AJ69"/>
+      <c r="AK69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>160317</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F70"/>
       <c r="G70" s="1" t="n">
@@ -7840,10 +8266,10 @@
         <v>42940</v>
       </c>
       <c r="I70" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J70" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K70"/>
       <c r="L70"/>
@@ -7903,30 +8329,36 @@
         <v>0</v>
       </c>
       <c r="AF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="n">
         <v>0.017379</v>
       </c>
-      <c r="AG70"/>
       <c r="AH70"/>
       <c r="AI70"/>
-      <c r="AJ70" t="b">
-        <v>0</v>
+      <c r="AJ70"/>
+      <c r="AK70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>161911</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F71"/>
       <c r="G71" s="1" t="n">
@@ -7936,10 +8368,10 @@
         <v>42926</v>
       </c>
       <c r="I71" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J71" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -8003,30 +8435,36 @@
         <v>0</v>
       </c>
       <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
         <v>1.119821</v>
       </c>
-      <c r="AG71"/>
       <c r="AH71"/>
       <c r="AI71"/>
-      <c r="AJ71" t="b">
-        <v>0</v>
+      <c r="AJ71"/>
+      <c r="AK71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>161176</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F72"/>
       <c r="G72" s="1" t="n">
@@ -8036,10 +8474,10 @@
         <v>43060</v>
       </c>
       <c r="I72" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J72" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K72"/>
       <c r="L72"/>
@@ -8099,30 +8537,36 @@
         <v>0</v>
       </c>
       <c r="AF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="n">
         <v>0.443077</v>
       </c>
-      <c r="AG72"/>
       <c r="AH72"/>
       <c r="AI72"/>
-      <c r="AJ72" t="b">
-        <v>0</v>
+      <c r="AJ72"/>
+      <c r="AK72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>162029</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F73"/>
       <c r="G73" s="1" t="n">
@@ -8132,10 +8576,10 @@
         <v>42942</v>
       </c>
       <c r="I73" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J73" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K73"/>
       <c r="L73"/>
@@ -8195,30 +8639,36 @@
         <v>0</v>
       </c>
       <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="n">
         <v>0.32107</v>
       </c>
-      <c r="AG73"/>
       <c r="AH73"/>
       <c r="AI73"/>
-      <c r="AJ73" t="b">
-        <v>0</v>
+      <c r="AJ73"/>
+      <c r="AK73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>162030</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F74"/>
       <c r="G74" s="1" t="n">
@@ -8228,10 +8678,10 @@
         <v>42942</v>
       </c>
       <c r="I74" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J74" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K74"/>
       <c r="L74"/>
@@ -8291,30 +8741,36 @@
         <v>0</v>
       </c>
       <c r="AF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="n">
         <v>0.32107</v>
       </c>
-      <c r="AG74"/>
       <c r="AH74"/>
       <c r="AI74"/>
-      <c r="AJ74" t="b">
-        <v>0</v>
+      <c r="AJ74"/>
+      <c r="AK74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>162031</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F75"/>
       <c r="G75" s="1" t="n">
@@ -8324,10 +8780,10 @@
         <v>42942</v>
       </c>
       <c r="I75" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J75" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
@@ -8387,30 +8843,36 @@
         <v>0</v>
       </c>
       <c r="AF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="n">
         <v>0.571505</v>
       </c>
-      <c r="AG75"/>
       <c r="AH75"/>
       <c r="AI75"/>
-      <c r="AJ75" t="b">
-        <v>0</v>
+      <c r="AJ75"/>
+      <c r="AK75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>162032</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F76"/>
       <c r="G76" s="1" t="n">
@@ -8420,10 +8882,10 @@
         <v>42942</v>
       </c>
       <c r="I76" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J76" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K76"/>
       <c r="L76"/>
@@ -8483,30 +8945,36 @@
         <v>0</v>
       </c>
       <c r="AF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="n">
         <v>0.192642</v>
       </c>
-      <c r="AG76"/>
       <c r="AH76"/>
       <c r="AI76"/>
-      <c r="AJ76" t="b">
-        <v>0</v>
+      <c r="AJ76"/>
+      <c r="AK76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>162033</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F77"/>
       <c r="G77" s="1" t="n">
@@ -8516,10 +8984,10 @@
         <v>42933</v>
       </c>
       <c r="I77" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J77" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K77" t="n">
         <v>0.5</v>
@@ -8583,30 +9051,36 @@
         <v>0</v>
       </c>
       <c r="AF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="n">
         <v>0.568828</v>
       </c>
-      <c r="AG77"/>
       <c r="AH77"/>
       <c r="AI77"/>
-      <c r="AJ77" t="b">
-        <v>0</v>
+      <c r="AJ77"/>
+      <c r="AK77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>161310</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F78"/>
       <c r="G78" s="1" t="n">
@@ -8616,10 +9090,10 @@
         <v>43011</v>
       </c>
       <c r="I78" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J78" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
@@ -8679,30 +9153,36 @@
         <v>0</v>
       </c>
       <c r="AF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="n">
         <v>0.113766</v>
       </c>
-      <c r="AG78"/>
       <c r="AH78"/>
       <c r="AI78"/>
-      <c r="AJ78" t="b">
-        <v>0</v>
+      <c r="AJ78"/>
+      <c r="AK78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>164408</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F79"/>
       <c r="G79" s="1" t="n">
@@ -8712,10 +9192,10 @@
         <v>43040</v>
       </c>
       <c r="I79" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J79" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K79"/>
       <c r="L79"/>
@@ -8775,30 +9255,36 @@
         <v>0</v>
       </c>
       <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
         <v>0.499937</v>
       </c>
-      <c r="AG79"/>
       <c r="AH79"/>
       <c r="AI79"/>
-      <c r="AJ79" t="b">
-        <v>0</v>
+      <c r="AJ79"/>
+      <c r="AK79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>165480</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E80" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F80"/>
       <c r="G80" s="1" t="n">
@@ -8808,10 +9294,10 @@
         <v>42940</v>
       </c>
       <c r="I80" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J80" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K80" t="n">
         <v>0.5</v>
@@ -8875,30 +9361,36 @@
         <v>0</v>
       </c>
       <c r="AF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="n">
         <v>0.568828</v>
       </c>
-      <c r="AG80"/>
       <c r="AH80"/>
       <c r="AI80"/>
-      <c r="AJ80" t="b">
-        <v>0</v>
+      <c r="AJ80"/>
+      <c r="AK80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>161877</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E81" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F81"/>
       <c r="G81" s="1" t="n">
@@ -8908,10 +9400,10 @@
         <v>43089</v>
       </c>
       <c r="I81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J81" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K81"/>
       <c r="L81"/>
@@ -8971,30 +9463,36 @@
         <v>0</v>
       </c>
       <c r="AF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="n">
         <v>4.999645</v>
       </c>
-      <c r="AG81"/>
       <c r="AH81"/>
       <c r="AI81"/>
-      <c r="AJ81" t="b">
-        <v>0</v>
+      <c r="AJ81"/>
+      <c r="AK81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>168258</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E82" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="1" t="n">
@@ -9004,10 +9502,10 @@
         <v>42940</v>
       </c>
       <c r="I82" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J82" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K82" t="n">
         <v>0.855</v>
@@ -9071,30 +9569,36 @@
         <v>0</v>
       </c>
       <c r="AF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="n">
         <v>0.972696</v>
       </c>
-      <c r="AG82"/>
       <c r="AH82"/>
       <c r="AI82"/>
-      <c r="AJ82" t="b">
-        <v>0</v>
+      <c r="AJ82"/>
+      <c r="AK82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>161842</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F83"/>
       <c r="G83" s="1" t="n">
@@ -9104,10 +9608,10 @@
         <v>43091</v>
       </c>
       <c r="I83" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J83" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K83" t="n">
         <v>0.2</v>
@@ -9171,30 +9675,36 @@
         <v>0</v>
       </c>
       <c r="AF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="n">
         <v>0.030609</v>
       </c>
-      <c r="AG83"/>
       <c r="AH83"/>
       <c r="AI83"/>
-      <c r="AJ83" t="b">
-        <v>0</v>
+      <c r="AJ83"/>
+      <c r="AK83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>162179</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F84"/>
       <c r="G84" s="1" t="n">
@@ -9204,10 +9714,10 @@
         <v>43262</v>
       </c>
       <c r="I84" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J84" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K84" t="n">
         <v>3</v>
@@ -9271,30 +9781,36 @@
         <v>0</v>
       </c>
       <c r="AF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="n">
         <v>3.529412</v>
       </c>
-      <c r="AG84"/>
       <c r="AH84"/>
       <c r="AI84"/>
-      <c r="AJ84" t="b">
-        <v>0</v>
+      <c r="AJ84"/>
+      <c r="AK84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>162432</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E85" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F85"/>
       <c r="G85" s="1" t="n">
@@ -9304,10 +9820,10 @@
         <v>42971</v>
       </c>
       <c r="I85" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J85" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K85" t="n">
         <v>0.0363</v>
@@ -9371,30 +9887,36 @@
         <v>0</v>
       </c>
       <c r="AF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="n">
         <v>0.042706</v>
       </c>
-      <c r="AG85"/>
       <c r="AH85"/>
       <c r="AI85"/>
-      <c r="AJ85" t="b">
-        <v>0</v>
+      <c r="AJ85"/>
+      <c r="AK85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>163039</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F86"/>
       <c r="G86" s="1" t="n">
@@ -9404,10 +9926,10 @@
         <v>42999</v>
       </c>
       <c r="I86" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K86" t="n">
         <v>0.315376</v>
@@ -9471,30 +9993,36 @@
         <v>0</v>
       </c>
       <c r="AF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="n">
         <v>0.231554</v>
       </c>
-      <c r="AG86"/>
       <c r="AH86"/>
       <c r="AI86"/>
-      <c r="AJ86" t="b">
-        <v>0</v>
+      <c r="AJ86"/>
+      <c r="AK86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>163972</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F87"/>
       <c r="G87" s="1" t="n">
@@ -9504,10 +10032,10 @@
         <v>43040</v>
       </c>
       <c r="I87" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J87" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K87"/>
       <c r="L87"/>
@@ -9567,30 +10095,36 @@
         <v>0</v>
       </c>
       <c r="AF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="n">
         <v>4</v>
       </c>
-      <c r="AG87"/>
       <c r="AH87"/>
       <c r="AI87"/>
-      <c r="AJ87" t="b">
-        <v>0</v>
+      <c r="AJ87"/>
+      <c r="AK87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>165477</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F88"/>
       <c r="G88" s="1" t="n">
@@ -9600,10 +10134,10 @@
         <v>43040</v>
       </c>
       <c r="I88" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J88" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K88"/>
       <c r="L88"/>
@@ -9663,30 +10197,36 @@
         <v>0</v>
       </c>
       <c r="AF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="n">
         <v>1.49949</v>
       </c>
-      <c r="AG88"/>
       <c r="AH88"/>
       <c r="AI88"/>
-      <c r="AJ88" t="b">
-        <v>0</v>
+      <c r="AJ88"/>
+      <c r="AK88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>165484</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E89" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F89"/>
       <c r="G89" s="1" t="n">
@@ -9696,10 +10236,10 @@
         <v>43040</v>
       </c>
       <c r="I89" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J89" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K89"/>
       <c r="L89"/>
@@ -9759,30 +10299,36 @@
         <v>0</v>
       </c>
       <c r="AF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="n">
         <v>1.295183</v>
       </c>
-      <c r="AG89"/>
       <c r="AH89"/>
       <c r="AI89"/>
-      <c r="AJ89" t="b">
-        <v>0</v>
+      <c r="AJ89"/>
+      <c r="AK89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>165478</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="1" t="n">
@@ -9792,10 +10338,10 @@
         <v>43040</v>
       </c>
       <c r="I90" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J90" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K90"/>
       <c r="L90"/>
@@ -9855,30 +10401,36 @@
         <v>0</v>
       </c>
       <c r="AF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="n">
         <v>1.099951</v>
       </c>
-      <c r="AG90"/>
       <c r="AH90"/>
       <c r="AI90"/>
-      <c r="AJ90" t="b">
-        <v>0</v>
+      <c r="AJ90"/>
+      <c r="AK90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>165486</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F91"/>
       <c r="G91" s="1" t="n">
@@ -9888,10 +10440,10 @@
         <v>43040</v>
       </c>
       <c r="I91" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J91" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K91"/>
       <c r="L91"/>
@@ -9951,30 +10503,36 @@
         <v>0</v>
       </c>
       <c r="AF91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="n">
         <v>0.812871</v>
       </c>
-      <c r="AG91"/>
       <c r="AH91"/>
       <c r="AI91"/>
-      <c r="AJ91" t="b">
-        <v>0</v>
+      <c r="AJ91"/>
+      <c r="AK91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>165483</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="1" t="n">
@@ -9984,10 +10542,10 @@
         <v>43053</v>
       </c>
       <c r="I92" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J92" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K92"/>
       <c r="L92"/>
@@ -10047,30 +10605,36 @@
         <v>0</v>
       </c>
       <c r="AF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="n">
         <v>0.812871</v>
       </c>
-      <c r="AG92"/>
       <c r="AH92"/>
       <c r="AI92"/>
-      <c r="AJ92" t="b">
-        <v>0</v>
+      <c r="AJ92"/>
+      <c r="AK92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>166030</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="1" t="n">
@@ -10080,10 +10644,10 @@
         <v>43027</v>
       </c>
       <c r="I93" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J93" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K93"/>
       <c r="L93"/>
@@ -10143,30 +10707,36 @@
         <v>0</v>
       </c>
       <c r="AF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="n">
         <v>8.25</v>
       </c>
-      <c r="AG93"/>
       <c r="AH93"/>
       <c r="AI93"/>
-      <c r="AJ93" t="b">
-        <v>0</v>
+      <c r="AJ93"/>
+      <c r="AK93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>165048</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="1" t="n">
@@ -10176,10 +10746,10 @@
         <v>43055</v>
       </c>
       <c r="I94" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J94" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K94" t="n">
         <v>4</v>
@@ -10243,30 +10813,36 @@
         <v>0</v>
       </c>
       <c r="AF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="n">
         <v>4.296455</v>
       </c>
-      <c r="AG94"/>
       <c r="AH94"/>
       <c r="AI94"/>
-      <c r="AJ94" t="b">
-        <v>0</v>
+      <c r="AJ94"/>
+      <c r="AK94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>157231</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="1" t="n">
@@ -10276,10 +10852,10 @@
         <v>43055</v>
       </c>
       <c r="I95" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J95" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K95" t="n">
         <v>4</v>
@@ -10343,30 +10919,36 @@
         <v>0</v>
       </c>
       <c r="AF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="n">
         <v>4.339848</v>
       </c>
-      <c r="AG95"/>
       <c r="AH95"/>
       <c r="AI95"/>
-      <c r="AJ95" t="b">
-        <v>0</v>
+      <c r="AJ95"/>
+      <c r="AK95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>165046</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E96" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="1" t="n">
@@ -10376,10 +10958,10 @@
         <v>43055</v>
       </c>
       <c r="I96" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J96" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K96" t="n">
         <v>3</v>
@@ -10443,30 +11025,36 @@
         <v>0</v>
       </c>
       <c r="AF96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="n">
         <v>3.257329</v>
       </c>
-      <c r="AG96"/>
       <c r="AH96"/>
       <c r="AI96"/>
-      <c r="AJ96" t="b">
-        <v>0</v>
+      <c r="AJ96"/>
+      <c r="AK96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>157988</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="1" t="n">
@@ -10476,10 +11064,10 @@
         <v>43089</v>
       </c>
       <c r="I97" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J97" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K97"/>
       <c r="L97"/>
@@ -10539,30 +11127,36 @@
         <v>0</v>
       </c>
       <c r="AF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="n">
         <v>2.25</v>
       </c>
-      <c r="AG97"/>
       <c r="AH97"/>
       <c r="AI97"/>
-      <c r="AJ97" t="b">
-        <v>0</v>
+      <c r="AJ97"/>
+      <c r="AK97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>168259</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="1" t="n">
@@ -10572,10 +11166,10 @@
         <v>43053</v>
       </c>
       <c r="I98" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J98" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K98"/>
       <c r="L98"/>
@@ -10635,30 +11229,36 @@
         <v>0</v>
       </c>
       <c r="AF98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="n">
         <v>2</v>
       </c>
-      <c r="AG98"/>
       <c r="AH98"/>
       <c r="AI98"/>
-      <c r="AJ98" t="b">
-        <v>0</v>
+      <c r="AJ98"/>
+      <c r="AK98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>166029</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="1" t="n">
@@ -10668,10 +11268,10 @@
         <v>43136</v>
       </c>
       <c r="I99" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J99" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K99"/>
       <c r="L99"/>
@@ -10731,30 +11331,36 @@
         <v>0</v>
       </c>
       <c r="AF99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="n">
         <v>0.034</v>
       </c>
-      <c r="AG99"/>
       <c r="AH99"/>
       <c r="AI99"/>
-      <c r="AJ99" t="b">
-        <v>0</v>
+      <c r="AJ99"/>
+      <c r="AK99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>170284</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="1" t="n">
@@ -10764,10 +11370,10 @@
         <v>43136</v>
       </c>
       <c r="I100" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J100" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K100"/>
       <c r="L100"/>
@@ -10827,30 +11433,36 @@
         <v>0</v>
       </c>
       <c r="AF100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="n">
         <v>0.07</v>
       </c>
-      <c r="AG100"/>
       <c r="AH100"/>
       <c r="AI100"/>
-      <c r="AJ100" t="b">
-        <v>0</v>
+      <c r="AJ100"/>
+      <c r="AK100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>170285</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="1" t="n">
@@ -10860,10 +11472,10 @@
         <v>43136</v>
       </c>
       <c r="I101" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J101" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K101"/>
       <c r="L101"/>
@@ -10923,30 +11535,36 @@
         <v>0</v>
       </c>
       <c r="AF101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="n">
         <v>3.561809</v>
       </c>
-      <c r="AG101"/>
       <c r="AH101"/>
       <c r="AI101"/>
-      <c r="AJ101" t="b">
-        <v>0</v>
+      <c r="AJ101"/>
+      <c r="AK101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>170286</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E102" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="1" t="n">
@@ -10956,10 +11574,10 @@
         <v>43136</v>
       </c>
       <c r="I102" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J102" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K102"/>
       <c r="L102"/>
@@ -11019,30 +11637,36 @@
         <v>0</v>
       </c>
       <c r="AF102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="n">
         <v>0.06</v>
       </c>
-      <c r="AG102"/>
       <c r="AH102"/>
       <c r="AI102"/>
-      <c r="AJ102" t="b">
-        <v>0</v>
+      <c r="AJ102"/>
+      <c r="AK102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>170288</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="1" t="n">
@@ -11052,10 +11676,10 @@
         <v>43053</v>
       </c>
       <c r="I103" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J103" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K103"/>
       <c r="L103"/>
@@ -11115,30 +11739,36 @@
         <v>0</v>
       </c>
       <c r="AF103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="n">
         <v>1</v>
       </c>
-      <c r="AG103"/>
       <c r="AH103"/>
       <c r="AI103"/>
-      <c r="AJ103" t="b">
-        <v>0</v>
+      <c r="AJ103"/>
+      <c r="AK103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>166027</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="1" t="n">
@@ -11148,10 +11778,10 @@
         <v>43053</v>
       </c>
       <c r="I104" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J104" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K104"/>
       <c r="L104"/>
@@ -11211,30 +11841,36 @@
         <v>0</v>
       </c>
       <c r="AF104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="n">
         <v>2</v>
       </c>
-      <c r="AG104"/>
       <c r="AH104"/>
       <c r="AI104"/>
-      <c r="AJ104" t="b">
-        <v>0</v>
+      <c r="AJ104"/>
+      <c r="AK104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>166028</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="1" t="n">
@@ -11244,10 +11880,10 @@
         <v>43027</v>
       </c>
       <c r="I105" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J105" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K105"/>
       <c r="L105"/>
@@ -11307,30 +11943,36 @@
         <v>0</v>
       </c>
       <c r="AF105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="n">
         <v>8.75</v>
       </c>
-      <c r="AG105"/>
       <c r="AH105"/>
       <c r="AI105"/>
-      <c r="AJ105" t="b">
-        <v>0</v>
+      <c r="AJ105"/>
+      <c r="AK105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>165047</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="1" t="n">
@@ -11340,10 +11982,10 @@
         <v>43027</v>
       </c>
       <c r="I106" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J106" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K106"/>
       <c r="L106"/>
@@ -11403,30 +12045,36 @@
         <v>0</v>
       </c>
       <c r="AF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="n">
         <v>8</v>
       </c>
-      <c r="AG106"/>
       <c r="AH106"/>
       <c r="AI106"/>
-      <c r="AJ106" t="b">
-        <v>0</v>
+      <c r="AJ106"/>
+      <c r="AK106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>165049</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="1" t="n">
@@ -11436,10 +12084,10 @@
         <v>43076</v>
       </c>
       <c r="I107" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K107"/>
       <c r="L107"/>
@@ -11499,30 +12147,36 @@
         <v>0</v>
       </c>
       <c r="AF107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="n">
         <v>0.007551</v>
       </c>
-      <c r="AG107"/>
       <c r="AH107"/>
       <c r="AI107"/>
-      <c r="AJ107" t="b">
-        <v>0</v>
+      <c r="AJ107"/>
+      <c r="AK107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>167631</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E108" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="1" t="n">
@@ -11532,10 +12186,10 @@
         <v>43089</v>
       </c>
       <c r="I108" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K108"/>
       <c r="L108"/>
@@ -11595,30 +12249,36 @@
         <v>0</v>
       </c>
       <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
         <v>49.301049</v>
       </c>
-      <c r="AG108"/>
       <c r="AH108"/>
       <c r="AI108"/>
-      <c r="AJ108" t="b">
-        <v>0</v>
+      <c r="AJ108"/>
+      <c r="AK108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>165051</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E109" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="1" t="n">
@@ -11628,10 +12288,10 @@
         <v>43089</v>
       </c>
       <c r="I109" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K109"/>
       <c r="L109"/>
@@ -11691,30 +12351,36 @@
         <v>0</v>
       </c>
       <c r="AF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="n">
         <v>22.387468</v>
       </c>
-      <c r="AG109"/>
       <c r="AH109"/>
       <c r="AI109"/>
-      <c r="AJ109" t="b">
-        <v>0</v>
+      <c r="AJ109"/>
+      <c r="AK109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>165052</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E110" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="1" t="n">
@@ -11724,10 +12390,10 @@
         <v>43160</v>
       </c>
       <c r="I110" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K110" t="n">
         <v>2</v>
@@ -11791,30 +12457,36 @@
         <v>0</v>
       </c>
       <c r="AF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="n">
         <v>0.245972</v>
       </c>
-      <c r="AG110"/>
       <c r="AH110"/>
       <c r="AI110"/>
-      <c r="AJ110" t="b">
-        <v>0</v>
+      <c r="AJ110"/>
+      <c r="AK110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>171123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E111" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="1" t="n">
@@ -11824,10 +12496,10 @@
         <v>43089</v>
       </c>
       <c r="I111" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J111" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K111" t="n">
         <v>3.5</v>
@@ -11891,30 +12563,36 @@
         <v>0</v>
       </c>
       <c r="AF111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="n">
         <v>4.127358</v>
       </c>
-      <c r="AG111"/>
       <c r="AH111"/>
       <c r="AI111"/>
-      <c r="AJ111" t="b">
-        <v>0</v>
+      <c r="AJ111"/>
+      <c r="AK111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>165523</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D112" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="1" t="n">
@@ -11924,10 +12602,10 @@
         <v>43089</v>
       </c>
       <c r="I112" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J112" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K112"/>
       <c r="L112"/>
@@ -11987,30 +12665,36 @@
         <v>0</v>
       </c>
       <c r="AF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="n">
         <v>5.666384</v>
       </c>
-      <c r="AG112"/>
       <c r="AH112"/>
       <c r="AI112"/>
-      <c r="AJ112" t="b">
-        <v>0</v>
+      <c r="AJ112"/>
+      <c r="AK112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>168260</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D113" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="1" t="n">
@@ -12020,10 +12704,10 @@
         <v>43089</v>
       </c>
       <c r="I113" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J113" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K113"/>
       <c r="L113"/>
@@ -12083,30 +12767,36 @@
         <v>0</v>
       </c>
       <c r="AF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="n">
         <v>7.494975</v>
       </c>
-      <c r="AG113"/>
       <c r="AH113"/>
       <c r="AI113"/>
-      <c r="AJ113" t="b">
-        <v>0</v>
+      <c r="AJ113"/>
+      <c r="AK113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>168261</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E114" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="1" t="n">
@@ -12116,10 +12806,10 @@
         <v>43088</v>
       </c>
       <c r="I114" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K114" t="n">
         <v>2</v>
@@ -12183,30 +12873,36 @@
         <v>0</v>
       </c>
       <c r="AF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="n">
         <v>0.239234</v>
       </c>
-      <c r="AG114"/>
       <c r="AH114"/>
       <c r="AI114"/>
-      <c r="AJ114" t="b">
-        <v>0</v>
+      <c r="AJ114"/>
+      <c r="AK114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>168142</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D115" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="1" t="n">
@@ -12216,10 +12912,10 @@
         <v>43286</v>
       </c>
       <c r="I115" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J115" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K115"/>
       <c r="L115"/>
@@ -12279,30 +12975,36 @@
         <v>0</v>
       </c>
       <c r="AF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="n">
         <v>5.988165</v>
       </c>
-      <c r="AG115"/>
       <c r="AH115"/>
       <c r="AI115"/>
-      <c r="AJ115" t="b">
-        <v>0</v>
+      <c r="AJ115"/>
+      <c r="AK115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>174568</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C116" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D116" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E116" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="1" t="n">
@@ -12312,10 +13014,10 @@
         <v>43133</v>
       </c>
       <c r="I116" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J116" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K116"/>
       <c r="L116"/>
@@ -12375,30 +13077,36 @@
         <v>0</v>
       </c>
       <c r="AF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG116" t="n">
         <v>0.058072</v>
       </c>
-      <c r="AG116"/>
       <c r="AH116"/>
       <c r="AI116"/>
-      <c r="AJ116" t="b">
-        <v>0</v>
+      <c r="AJ116"/>
+      <c r="AK116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>170171</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E117" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="1" t="n">
@@ -12408,10 +13116,10 @@
         <v>43089</v>
       </c>
       <c r="I117" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J117" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K117"/>
       <c r="L117"/>
@@ -12471,30 +13179,36 @@
         <v>0</v>
       </c>
       <c r="AF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="n">
         <v>13.192612</v>
       </c>
-      <c r="AG117"/>
       <c r="AH117"/>
       <c r="AI117"/>
-      <c r="AJ117" t="b">
-        <v>0</v>
+      <c r="AJ117"/>
+      <c r="AK117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>168257</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E118" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="1" t="n">
@@ -12504,10 +13218,10 @@
         <v>43286</v>
       </c>
       <c r="I118" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J118" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K118"/>
       <c r="L118"/>
@@ -12567,30 +13281,36 @@
         <v>0</v>
       </c>
       <c r="AF118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG118" t="n">
         <v>27.988534</v>
       </c>
-      <c r="AG118"/>
       <c r="AH118"/>
       <c r="AI118"/>
-      <c r="AJ118" t="b">
-        <v>0</v>
+      <c r="AJ118"/>
+      <c r="AK118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>174569</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E119" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="1" t="n">
@@ -12600,10 +13320,10 @@
         <v>43650</v>
       </c>
       <c r="I119" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J119" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K119" t="n">
         <v>0.7</v>
@@ -12667,30 +13387,36 @@
         <v>0</v>
       </c>
       <c r="AF119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG119" t="n">
         <v>0.869565</v>
       </c>
-      <c r="AG119"/>
       <c r="AH119"/>
       <c r="AI119"/>
-      <c r="AJ119" t="b">
-        <v>0</v>
+      <c r="AJ119"/>
+      <c r="AK119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>170854</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E120" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="1" t="n">
@@ -12700,10 +13426,10 @@
         <v>43151</v>
       </c>
       <c r="I120" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J120" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K120" t="n">
         <v>0.5</v>
@@ -12767,30 +13493,36 @@
         <v>0</v>
       </c>
       <c r="AF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="n">
         <v>0.621118</v>
       </c>
-      <c r="AG120"/>
       <c r="AH120"/>
       <c r="AI120"/>
-      <c r="AJ120" t="b">
-        <v>0</v>
+      <c r="AJ120"/>
+      <c r="AK120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>170825</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="1" t="n">
@@ -12800,10 +13532,10 @@
         <v>43154</v>
       </c>
       <c r="I121" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K121" t="n">
         <v>0.169</v>
@@ -12867,30 +13599,36 @@
         <v>0</v>
       </c>
       <c r="AF121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="n">
         <v>0.209938</v>
       </c>
-      <c r="AG121"/>
       <c r="AH121"/>
       <c r="AI121"/>
-      <c r="AJ121" t="b">
-        <v>0</v>
+      <c r="AJ121"/>
+      <c r="AK121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>170968</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C122" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D122" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E122" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="1" t="n">
@@ -12900,10 +13638,10 @@
         <v>43179</v>
       </c>
       <c r="I122" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K122"/>
       <c r="L122"/>
@@ -12963,30 +13701,36 @@
         <v>0</v>
       </c>
       <c r="AF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG122" t="n">
         <v>0.008037</v>
       </c>
-      <c r="AG122"/>
       <c r="AH122"/>
       <c r="AI122"/>
-      <c r="AJ122" t="b">
-        <v>0</v>
+      <c r="AJ122"/>
+      <c r="AK122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>171709</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C123" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E123" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="1" t="n">
@@ -12996,10 +13740,10 @@
         <v>43237</v>
       </c>
       <c r="I123" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J123" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K123" t="n">
         <v>1.25</v>
@@ -13063,30 +13807,36 @@
         <v>0</v>
       </c>
       <c r="AF123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG123" t="n">
         <v>0.205897</v>
       </c>
-      <c r="AG123"/>
       <c r="AH123"/>
       <c r="AI123"/>
-      <c r="AJ123" t="b">
-        <v>0</v>
+      <c r="AJ123"/>
+      <c r="AK123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>174617</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="1" t="n">
@@ -13096,10 +13846,10 @@
         <v>43655</v>
       </c>
       <c r="I124" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J124" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K124" t="n">
         <v>1.8</v>
@@ -13163,30 +13913,36 @@
         <v>0</v>
       </c>
       <c r="AF124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG124" t="n">
         <v>2.208589</v>
       </c>
-      <c r="AG124"/>
       <c r="AH124"/>
       <c r="AI124"/>
-      <c r="AJ124" t="b">
-        <v>0</v>
+      <c r="AJ124"/>
+      <c r="AK124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>171631</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E125" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="1" t="n">
@@ -13196,10 +13952,10 @@
         <v>43703</v>
       </c>
       <c r="I125" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J125" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K125" t="n">
         <v>0.667737</v>
@@ -13263,30 +14019,36 @@
         <v>0</v>
       </c>
       <c r="AF125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG125" t="n">
         <v>0.819309</v>
       </c>
-      <c r="AG125"/>
       <c r="AH125"/>
       <c r="AI125"/>
-      <c r="AJ125" t="b">
-        <v>0</v>
+      <c r="AJ125"/>
+      <c r="AK125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>195291</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E126" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="1" t="n">
@@ -13296,10 +14058,10 @@
         <v>43263</v>
       </c>
       <c r="I126" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J126" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K126" t="n">
         <v>0.2</v>
@@ -13363,52 +14125,58 @@
         <v>0</v>
       </c>
       <c r="AF126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG126" t="n">
         <v>0.20202</v>
       </c>
-      <c r="AG126"/>
       <c r="AH126"/>
       <c r="AI126"/>
-      <c r="AJ126" t="b">
-        <v>0</v>
+      <c r="AJ126"/>
+      <c r="AK126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>176336</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E127" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F127"/>
       <c r="G127" s="1" t="n">
-        <v>43320</v>
+        <v>43259</v>
       </c>
       <c r="H127" s="1" t="n">
-        <v>43381</v>
+        <v>43332</v>
       </c>
       <c r="I127" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J127" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K127"/>
       <c r="L127"/>
       <c r="M127" t="n">
-        <v>0.749971</v>
+        <v>1.5</v>
       </c>
       <c r="N127"/>
       <c r="O127" t="n">
-        <v>0.749971</v>
+        <v>1.5</v>
       </c>
       <c r="P127" t="n">
         <v>1</v>
@@ -13456,16 +14224,124 @@
         <v>0</v>
       </c>
       <c r="AE127" t="n">
-        <v>0.749971</v>
+        <v>1.5</v>
       </c>
       <c r="AF127" t="n">
-        <v>0.749971</v>
-      </c>
-      <c r="AG127"/>
+        <v>0</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>1.5</v>
+      </c>
       <c r="AH127"/>
       <c r="AI127"/>
-      <c r="AJ127" t="b">
-        <v>0</v>
+      <c r="AJ127"/>
+      <c r="AK127" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>179000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128" t="s">
+        <v>49</v>
+      </c>
+      <c r="F128"/>
+      <c r="G128" s="1" t="n">
+        <v>43320</v>
+      </c>
+      <c r="H128" s="1" t="n">
+        <v>43381</v>
+      </c>
+      <c r="I128" t="s">
+        <v>233</v>
+      </c>
+      <c r="J128" t="s">
+        <v>234</v>
+      </c>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128" t="n">
+        <v>0.749971</v>
+      </c>
+      <c r="N128"/>
+      <c r="O128" t="n">
+        <v>0.749971</v>
+      </c>
+      <c r="P128" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>0.749971</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>0.749971</v>
+      </c>
+      <c r="AH128"/>
+      <c r="AI128"/>
+      <c r="AJ128"/>
+      <c r="AK128" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>181218</v>
       </c>
     </row>
   </sheetData>

--- a/output/Kenya_formatted.xlsx
+++ b/output/Kenya_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -624,9 +624,6 @@
   </si>
   <si>
     <t xml:space="preserve">Adm support  (USAID/OFDA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support to: (i) treatment of Moderate Acute Malnutrition (MAM) among children 6-59 months, and pregnant and lactating women; and (ii) prevention of deterioration in the nutrition status of children 6-59 months.</t>
   </si>
   <si>
     <t xml:space="preserve">Support to drought affected population to decrease food insecurity and malnutrition</t>
@@ -12176,29 +12173,33 @@
         <v>41</v>
       </c>
       <c r="E108" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="1" t="n">
-        <v>43026</v>
+        <v>43027</v>
       </c>
       <c r="H108" s="1" t="n">
-        <v>43089</v>
+        <v>43160</v>
       </c>
       <c r="I108" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="J108" t="s">
         <v>44</v>
       </c>
-      <c r="K108"/>
-      <c r="L108"/>
+      <c r="K108" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>8.131</v>
+      </c>
       <c r="M108" t="n">
-        <v>49.301049</v>
+        <v>0.245972</v>
       </c>
       <c r="N108"/>
       <c r="O108" t="n">
-        <v>49.301049</v>
+        <v>0.245972</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -12231,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="Z108" t="n">
-        <v>49.301049</v>
+        <v>0.245972</v>
       </c>
       <c r="AA108" t="n">
         <v>0</v>
@@ -12252,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="AG108" t="n">
-        <v>49.301049</v>
+        <v>0.245972</v>
       </c>
       <c r="AH108"/>
       <c r="AI108"/>
@@ -12261,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="AL108" t="n">
-        <v>165051</v>
+        <v>171123</v>
       </c>
     </row>
     <row r="109">
@@ -12278,29 +12279,33 @@
         <v>41</v>
       </c>
       <c r="E109" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="1" t="n">
-        <v>43026</v>
+        <v>43035</v>
       </c>
       <c r="H109" s="1" t="n">
         <v>43089</v>
       </c>
       <c r="I109" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
-      </c>
-      <c r="K109"/>
-      <c r="L109"/>
+        <v>206</v>
+      </c>
+      <c r="K109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.848</v>
+      </c>
       <c r="M109" t="n">
-        <v>22.387468</v>
+        <v>4.127358</v>
       </c>
       <c r="N109"/>
       <c r="O109" t="n">
-        <v>22.387468</v>
+        <v>4.127358</v>
       </c>
       <c r="P109" t="n">
         <v>1</v>
@@ -12333,7 +12338,7 @@
         <v>0</v>
       </c>
       <c r="Z109" t="n">
-        <v>22.387468</v>
+        <v>4.127358</v>
       </c>
       <c r="AA109" t="n">
         <v>0</v>
@@ -12354,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="AG109" t="n">
-        <v>22.387468</v>
+        <v>4.127358</v>
       </c>
       <c r="AH109"/>
       <c r="AI109"/>
@@ -12363,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="AL109" t="n">
-        <v>165052</v>
+        <v>165523</v>
       </c>
     </row>
     <row r="110">
@@ -12380,33 +12385,29 @@
         <v>41</v>
       </c>
       <c r="E110" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="1" t="n">
-        <v>43027</v>
+        <v>43048</v>
       </c>
       <c r="H110" s="1" t="n">
-        <v>43160</v>
+        <v>43089</v>
       </c>
       <c r="I110" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
-      </c>
-      <c r="K110" t="n">
-        <v>2</v>
-      </c>
-      <c r="L110" t="n">
-        <v>8.131</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="K110"/>
+      <c r="L110"/>
       <c r="M110" t="n">
-        <v>0.245972</v>
+        <v>5.666384</v>
       </c>
       <c r="N110"/>
       <c r="O110" t="n">
-        <v>0.245972</v>
+        <v>5.666384</v>
       </c>
       <c r="P110" t="n">
         <v>1</v>
@@ -12439,10 +12440,10 @@
         <v>0</v>
       </c>
       <c r="Z110" t="n">
-        <v>0.245972</v>
+        <v>0</v>
       </c>
       <c r="AA110" t="n">
-        <v>0</v>
+        <v>5.666384</v>
       </c>
       <c r="AB110" t="n">
         <v>0</v>
@@ -12460,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="AG110" t="n">
-        <v>0.245972</v>
+        <v>5.666384</v>
       </c>
       <c r="AH110"/>
       <c r="AI110"/>
@@ -12469,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AL110" t="n">
-        <v>171123</v>
+        <v>168260</v>
       </c>
     </row>
     <row r="111">
@@ -12486,33 +12487,29 @@
         <v>41</v>
       </c>
       <c r="E111" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="1" t="n">
-        <v>43035</v>
+        <v>43048</v>
       </c>
       <c r="H111" s="1" t="n">
         <v>43089</v>
       </c>
       <c r="I111" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="J111" t="s">
-        <v>207</v>
-      </c>
-      <c r="K111" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.848</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="K111"/>
+      <c r="L111"/>
       <c r="M111" t="n">
-        <v>4.127358</v>
+        <v>7.494975</v>
       </c>
       <c r="N111"/>
       <c r="O111" t="n">
-        <v>4.127358</v>
+        <v>7.494975</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -12545,10 +12542,10 @@
         <v>0</v>
       </c>
       <c r="Z111" t="n">
-        <v>4.127358</v>
+        <v>0</v>
       </c>
       <c r="AA111" t="n">
-        <v>0</v>
+        <v>7.494975</v>
       </c>
       <c r="AB111" t="n">
         <v>0</v>
@@ -12566,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="AG111" t="n">
-        <v>4.127358</v>
+        <v>7.494975</v>
       </c>
       <c r="AH111"/>
       <c r="AI111"/>
@@ -12575,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AL111" t="n">
-        <v>165523</v>
+        <v>168261</v>
       </c>
     </row>
     <row r="112">
@@ -12592,29 +12589,33 @@
         <v>41</v>
       </c>
       <c r="E112" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="1" t="n">
-        <v>43048</v>
+        <v>43058</v>
       </c>
       <c r="H112" s="1" t="n">
-        <v>43089</v>
+        <v>43088</v>
       </c>
       <c r="I112" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="J112" t="s">
-        <v>208</v>
-      </c>
-      <c r="K112"/>
-      <c r="L112"/>
+        <v>44</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" t="n">
+        <v>8.36</v>
+      </c>
       <c r="M112" t="n">
-        <v>5.666384</v>
+        <v>0.239234</v>
       </c>
       <c r="N112"/>
       <c r="O112" t="n">
-        <v>5.666384</v>
+        <v>0.239234</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -12650,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="AA112" t="n">
-        <v>5.666384</v>
+        <v>0.239234</v>
       </c>
       <c r="AB112" t="n">
         <v>0</v>
@@ -12668,7 +12669,7 @@
         <v>0</v>
       </c>
       <c r="AG112" t="n">
-        <v>5.666384</v>
+        <v>0.239234</v>
       </c>
       <c r="AH112"/>
       <c r="AI112"/>
@@ -12677,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="AL112" t="n">
-        <v>168260</v>
+        <v>168142</v>
       </c>
     </row>
     <row r="113">
@@ -12698,25 +12699,25 @@
       </c>
       <c r="F113"/>
       <c r="G113" s="1" t="n">
-        <v>43048</v>
+        <v>43061</v>
       </c>
       <c r="H113" s="1" t="n">
-        <v>43089</v>
+        <v>43286</v>
       </c>
       <c r="I113" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="J113" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K113"/>
       <c r="L113"/>
       <c r="M113" t="n">
-        <v>7.494975</v>
+        <v>5.988165</v>
       </c>
       <c r="N113"/>
       <c r="O113" t="n">
-        <v>7.494975</v>
+        <v>5.988165</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -12752,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="AA113" t="n">
-        <v>7.494975</v>
+        <v>5.988165</v>
       </c>
       <c r="AB113" t="n">
         <v>0</v>
@@ -12770,7 +12771,7 @@
         <v>0</v>
       </c>
       <c r="AG113" t="n">
-        <v>7.494975</v>
+        <v>5.988165</v>
       </c>
       <c r="AH113"/>
       <c r="AI113"/>
@@ -12779,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="AL113" t="n">
-        <v>168261</v>
+        <v>174568</v>
       </c>
     </row>
     <row r="114">
@@ -12796,33 +12797,29 @@
         <v>41</v>
       </c>
       <c r="E114" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="1" t="n">
-        <v>43058</v>
+        <v>43062</v>
       </c>
       <c r="H114" s="1" t="n">
-        <v>43088</v>
+        <v>43133</v>
       </c>
       <c r="I114" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
-      </c>
-      <c r="K114" t="n">
-        <v>2</v>
-      </c>
-      <c r="L114" t="n">
-        <v>8.36</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="K114"/>
+      <c r="L114"/>
       <c r="M114" t="n">
-        <v>0.239234</v>
+        <v>0.058072</v>
       </c>
       <c r="N114"/>
       <c r="O114" t="n">
-        <v>0.239234</v>
+        <v>0.058072</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -12858,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="AA114" t="n">
-        <v>0.239234</v>
+        <v>0.058072</v>
       </c>
       <c r="AB114" t="n">
         <v>0</v>
@@ -12876,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="AG114" t="n">
-        <v>0.239234</v>
+        <v>0.058072</v>
       </c>
       <c r="AH114"/>
       <c r="AI114"/>
@@ -12885,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="AL114" t="n">
-        <v>168142</v>
+        <v>170171</v>
       </c>
     </row>
     <row r="115">
@@ -12902,29 +12899,29 @@
         <v>41</v>
       </c>
       <c r="E115" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="1" t="n">
-        <v>43061</v>
+        <v>43063</v>
       </c>
       <c r="H115" s="1" t="n">
-        <v>43286</v>
+        <v>43089</v>
       </c>
       <c r="I115" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="J115" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K115"/>
       <c r="L115"/>
       <c r="M115" t="n">
-        <v>5.988165</v>
+        <v>13.192612</v>
       </c>
       <c r="N115"/>
       <c r="O115" t="n">
-        <v>5.988165</v>
+        <v>13.192612</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -12960,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="AA115" t="n">
-        <v>5.988165</v>
+        <v>13.192612</v>
       </c>
       <c r="AB115" t="n">
         <v>0</v>
@@ -12978,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="AG115" t="n">
-        <v>5.988165</v>
+        <v>13.192612</v>
       </c>
       <c r="AH115"/>
       <c r="AI115"/>
@@ -12987,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AL115" t="n">
-        <v>174568</v>
+        <v>168257</v>
       </c>
     </row>
     <row r="116">
@@ -13004,29 +13001,29 @@
         <v>41</v>
       </c>
       <c r="E116" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="1" t="n">
-        <v>43062</v>
+        <v>43069</v>
       </c>
       <c r="H116" s="1" t="n">
-        <v>43133</v>
+        <v>43286</v>
       </c>
       <c r="I116" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J116" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K116"/>
       <c r="L116"/>
       <c r="M116" t="n">
-        <v>0.058072</v>
+        <v>27.988534</v>
       </c>
       <c r="N116"/>
       <c r="O116" t="n">
-        <v>0.058072</v>
+        <v>27.988534</v>
       </c>
       <c r="P116" t="n">
         <v>1</v>
@@ -13062,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="AA116" t="n">
-        <v>0.058072</v>
+        <v>27.988534</v>
       </c>
       <c r="AB116" t="n">
         <v>0</v>
@@ -13080,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="AG116" t="n">
-        <v>0.058072</v>
+        <v>27.988534</v>
       </c>
       <c r="AH116"/>
       <c r="AI116"/>
@@ -13089,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="AL116" t="n">
-        <v>170171</v>
+        <v>174569</v>
       </c>
     </row>
     <row r="117">
@@ -13106,29 +13103,33 @@
         <v>41</v>
       </c>
       <c r="E117" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="1" t="n">
-        <v>43063</v>
+        <v>43147</v>
       </c>
       <c r="H117" s="1" t="n">
-        <v>43089</v>
+        <v>43650</v>
       </c>
       <c r="I117" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="J117" t="s">
-        <v>216</v>
-      </c>
-      <c r="K117"/>
-      <c r="L117"/>
+        <v>218</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.805</v>
+      </c>
       <c r="M117" t="n">
-        <v>13.192612</v>
+        <v>0.869565</v>
       </c>
       <c r="N117"/>
       <c r="O117" t="n">
-        <v>13.192612</v>
+        <v>0.869565</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -13164,10 +13165,10 @@
         <v>0</v>
       </c>
       <c r="AA117" t="n">
-        <v>13.192612</v>
+        <v>0</v>
       </c>
       <c r="AB117" t="n">
-        <v>0</v>
+        <v>0.869565</v>
       </c>
       <c r="AC117" t="n">
         <v>0</v>
@@ -13182,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="AG117" t="n">
-        <v>13.192612</v>
+        <v>0.869565</v>
       </c>
       <c r="AH117"/>
       <c r="AI117"/>
@@ -13191,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="AL117" t="n">
-        <v>168257</v>
+        <v>170854</v>
       </c>
     </row>
     <row r="118">
@@ -13208,29 +13209,33 @@
         <v>41</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="1" t="n">
-        <v>43069</v>
+        <v>43150</v>
       </c>
       <c r="H118" s="1" t="n">
-        <v>43286</v>
+        <v>43151</v>
       </c>
       <c r="I118" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="J118" t="s">
-        <v>217</v>
-      </c>
-      <c r="K118"/>
-      <c r="L118"/>
+        <v>220</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.805</v>
+      </c>
       <c r="M118" t="n">
-        <v>27.988534</v>
+        <v>0.621118</v>
       </c>
       <c r="N118"/>
       <c r="O118" t="n">
-        <v>27.988534</v>
+        <v>0.621118</v>
       </c>
       <c r="P118" t="n">
         <v>1</v>
@@ -13266,10 +13271,10 @@
         <v>0</v>
       </c>
       <c r="AA118" t="n">
-        <v>27.988534</v>
+        <v>0</v>
       </c>
       <c r="AB118" t="n">
-        <v>0</v>
+        <v>0.621118</v>
       </c>
       <c r="AC118" t="n">
         <v>0</v>
@@ -13284,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="AG118" t="n">
-        <v>27.988534</v>
+        <v>0.621118</v>
       </c>
       <c r="AH118"/>
       <c r="AI118"/>
@@ -13293,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="AL118" t="n">
-        <v>174569</v>
+        <v>170825</v>
       </c>
     </row>
     <row r="119">
@@ -13310,33 +13315,33 @@
         <v>41</v>
       </c>
       <c r="E119" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="1" t="n">
-        <v>43147</v>
+        <v>43153</v>
       </c>
       <c r="H119" s="1" t="n">
-        <v>43650</v>
+        <v>43154</v>
       </c>
       <c r="I119" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J119" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="K119" t="n">
-        <v>0.7</v>
+        <v>0.169</v>
       </c>
       <c r="L119" t="n">
         <v>0.805</v>
       </c>
       <c r="M119" t="n">
-        <v>0.869565</v>
+        <v>0.209938</v>
       </c>
       <c r="N119"/>
       <c r="O119" t="n">
-        <v>0.869565</v>
+        <v>0.209938</v>
       </c>
       <c r="P119" t="n">
         <v>1</v>
@@ -13375,7 +13380,7 @@
         <v>0</v>
       </c>
       <c r="AB119" t="n">
-        <v>0.869565</v>
+        <v>0.209938</v>
       </c>
       <c r="AC119" t="n">
         <v>0</v>
@@ -13390,7 +13395,7 @@
         <v>0</v>
       </c>
       <c r="AG119" t="n">
-        <v>0.869565</v>
+        <v>0.209938</v>
       </c>
       <c r="AH119"/>
       <c r="AI119"/>
@@ -13399,7 +13404,7 @@
         <v>0</v>
       </c>
       <c r="AL119" t="n">
-        <v>170854</v>
+        <v>170968</v>
       </c>
     </row>
     <row r="120">
@@ -13416,33 +13421,29 @@
         <v>41</v>
       </c>
       <c r="E120" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="1" t="n">
-        <v>43150</v>
+        <v>43165</v>
       </c>
       <c r="H120" s="1" t="n">
-        <v>43151</v>
+        <v>43179</v>
       </c>
       <c r="I120" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J120" t="s">
-        <v>221</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.805</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K120"/>
+      <c r="L120"/>
       <c r="M120" t="n">
-        <v>0.621118</v>
+        <v>0.008037</v>
       </c>
       <c r="N120"/>
       <c r="O120" t="n">
-        <v>0.621118</v>
+        <v>0.008037</v>
       </c>
       <c r="P120" t="n">
         <v>1</v>
@@ -13481,10 +13482,10 @@
         <v>0</v>
       </c>
       <c r="AB120" t="n">
-        <v>0.621118</v>
+        <v>0</v>
       </c>
       <c r="AC120" t="n">
-        <v>0</v>
+        <v>0.008037</v>
       </c>
       <c r="AD120" t="n">
         <v>0</v>
@@ -13496,7 +13497,7 @@
         <v>0</v>
       </c>
       <c r="AG120" t="n">
-        <v>0.621118</v>
+        <v>0.008037</v>
       </c>
       <c r="AH120"/>
       <c r="AI120"/>
@@ -13505,7 +13506,7 @@
         <v>0</v>
       </c>
       <c r="AL120" t="n">
-        <v>170825</v>
+        <v>171709</v>
       </c>
     </row>
     <row r="121">
@@ -13522,33 +13523,33 @@
         <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="1" t="n">
-        <v>43153</v>
+        <v>43168</v>
       </c>
       <c r="H121" s="1" t="n">
-        <v>43154</v>
+        <v>43237</v>
       </c>
       <c r="I121" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="K121" t="n">
-        <v>0.169</v>
+        <v>1.25</v>
       </c>
       <c r="L121" t="n">
-        <v>0.805</v>
+        <v>6.071</v>
       </c>
       <c r="M121" t="n">
-        <v>0.209938</v>
+        <v>0.205897</v>
       </c>
       <c r="N121"/>
       <c r="O121" t="n">
-        <v>0.209938</v>
+        <v>0.205897</v>
       </c>
       <c r="P121" t="n">
         <v>1</v>
@@ -13587,10 +13588,10 @@
         <v>0</v>
       </c>
       <c r="AB121" t="n">
-        <v>0.209938</v>
+        <v>0</v>
       </c>
       <c r="AC121" t="n">
-        <v>0</v>
+        <v>0.205897</v>
       </c>
       <c r="AD121" t="n">
         <v>0</v>
@@ -13602,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="AG121" t="n">
-        <v>0.209938</v>
+        <v>0.205897</v>
       </c>
       <c r="AH121"/>
       <c r="AI121"/>
@@ -13611,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="AL121" t="n">
-        <v>170968</v>
+        <v>174617</v>
       </c>
     </row>
     <row r="122">
@@ -13628,29 +13629,33 @@
         <v>41</v>
       </c>
       <c r="E122" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="1" t="n">
-        <v>43165</v>
+        <v>43173</v>
       </c>
       <c r="H122" s="1" t="n">
-        <v>43179</v>
+        <v>43655</v>
       </c>
       <c r="I122" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
-      </c>
-      <c r="K122"/>
-      <c r="L122"/>
+        <v>226</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.815</v>
+      </c>
       <c r="M122" t="n">
-        <v>0.008037</v>
+        <v>2.208589</v>
       </c>
       <c r="N122"/>
       <c r="O122" t="n">
-        <v>0.008037</v>
+        <v>2.208589</v>
       </c>
       <c r="P122" t="n">
         <v>1</v>
@@ -13692,7 +13697,7 @@
         <v>0</v>
       </c>
       <c r="AC122" t="n">
-        <v>0.008037</v>
+        <v>2.208589</v>
       </c>
       <c r="AD122" t="n">
         <v>0</v>
@@ -13704,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="AG122" t="n">
-        <v>0.008037</v>
+        <v>2.208589</v>
       </c>
       <c r="AH122"/>
       <c r="AI122"/>
@@ -13713,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="AL122" t="n">
-        <v>171709</v>
+        <v>171631</v>
       </c>
     </row>
     <row r="123">
@@ -13730,33 +13735,33 @@
         <v>41</v>
       </c>
       <c r="E123" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="1" t="n">
-        <v>43168</v>
+        <v>43173</v>
       </c>
       <c r="H123" s="1" t="n">
-        <v>43237</v>
+        <v>43703</v>
       </c>
       <c r="I123" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J123" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K123" t="n">
-        <v>1.25</v>
+        <v>0.667737</v>
       </c>
       <c r="L123" t="n">
-        <v>6.071</v>
+        <v>0.815</v>
       </c>
       <c r="M123" t="n">
-        <v>0.205897</v>
+        <v>0.819309</v>
       </c>
       <c r="N123"/>
       <c r="O123" t="n">
-        <v>0.205897</v>
+        <v>0.819309</v>
       </c>
       <c r="P123" t="n">
         <v>1</v>
@@ -13798,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="AC123" t="n">
-        <v>0.205897</v>
+        <v>0.819309</v>
       </c>
       <c r="AD123" t="n">
         <v>0</v>
@@ -13810,7 +13815,7 @@
         <v>0</v>
       </c>
       <c r="AG123" t="n">
-        <v>0.205897</v>
+        <v>0.819309</v>
       </c>
       <c r="AH123"/>
       <c r="AI123"/>
@@ -13819,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="AL123" t="n">
-        <v>174617</v>
+        <v>195291</v>
       </c>
     </row>
     <row r="124">
@@ -13836,33 +13841,33 @@
         <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="1" t="n">
-        <v>43173</v>
+        <v>43251</v>
       </c>
       <c r="H124" s="1" t="n">
-        <v>43655</v>
+        <v>43263</v>
       </c>
       <c r="I124" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J124" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K124" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="L124" t="n">
-        <v>0.815</v>
+        <v>0.99</v>
       </c>
       <c r="M124" t="n">
-        <v>2.208589</v>
+        <v>0.20202</v>
       </c>
       <c r="N124"/>
       <c r="O124" t="n">
-        <v>2.208589</v>
+        <v>0.20202</v>
       </c>
       <c r="P124" t="n">
         <v>1</v>
@@ -13904,10 +13909,10 @@
         <v>0</v>
       </c>
       <c r="AC124" t="n">
-        <v>2.208589</v>
+        <v>0</v>
       </c>
       <c r="AD124" t="n">
-        <v>0</v>
+        <v>0.20202</v>
       </c>
       <c r="AE124" t="n">
         <v>0</v>
@@ -13916,7 +13921,7 @@
         <v>0</v>
       </c>
       <c r="AG124" t="n">
-        <v>2.208589</v>
+        <v>0.20202</v>
       </c>
       <c r="AH124"/>
       <c r="AI124"/>
@@ -13925,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="AL124" t="n">
-        <v>171631</v>
+        <v>176336</v>
       </c>
     </row>
     <row r="125">
@@ -13942,33 +13947,29 @@
         <v>41</v>
       </c>
       <c r="E125" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="1" t="n">
-        <v>43173</v>
+        <v>43259</v>
       </c>
       <c r="H125" s="1" t="n">
-        <v>43703</v>
+        <v>43332</v>
       </c>
       <c r="I125" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J125" t="s">
-        <v>227</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.667737</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0.815</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="K125"/>
+      <c r="L125"/>
       <c r="M125" t="n">
-        <v>0.819309</v>
+        <v>1.5</v>
       </c>
       <c r="N125"/>
       <c r="O125" t="n">
-        <v>0.819309</v>
+        <v>1.5</v>
       </c>
       <c r="P125" t="n">
         <v>1</v>
@@ -14010,19 +14011,19 @@
         <v>0</v>
       </c>
       <c r="AC125" t="n">
-        <v>0.819309</v>
+        <v>0</v>
       </c>
       <c r="AD125" t="n">
         <v>0</v>
       </c>
       <c r="AE125" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF125" t="n">
         <v>0</v>
       </c>
       <c r="AG125" t="n">
-        <v>0.819309</v>
+        <v>1.5</v>
       </c>
       <c r="AH125"/>
       <c r="AI125"/>
@@ -14031,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="AL125" t="n">
-        <v>195291</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="126">
@@ -14048,33 +14049,29 @@
         <v>41</v>
       </c>
       <c r="E126" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="1" t="n">
-        <v>43251</v>
+        <v>43320</v>
       </c>
       <c r="H126" s="1" t="n">
-        <v>43263</v>
+        <v>43381</v>
       </c>
       <c r="I126" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J126" t="s">
-        <v>230</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0.99</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="K126"/>
+      <c r="L126"/>
       <c r="M126" t="n">
-        <v>0.20202</v>
+        <v>0.749971</v>
       </c>
       <c r="N126"/>
       <c r="O126" t="n">
-        <v>0.20202</v>
+        <v>0.749971</v>
       </c>
       <c r="P126" t="n">
         <v>1</v>
@@ -14119,16 +14116,16 @@
         <v>0</v>
       </c>
       <c r="AD126" t="n">
-        <v>0.20202</v>
+        <v>0</v>
       </c>
       <c r="AE126" t="n">
         <v>0</v>
       </c>
       <c r="AF126" t="n">
-        <v>0</v>
+        <v>0.749971</v>
       </c>
       <c r="AG126" t="n">
-        <v>0.20202</v>
+        <v>0.749971</v>
       </c>
       <c r="AH126"/>
       <c r="AI126"/>
@@ -14137,210 +14134,6 @@
         <v>0</v>
       </c>
       <c r="AL126" t="n">
-        <v>176336</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>38</v>
-      </c>
-      <c r="B127" t="s">
-        <v>39</v>
-      </c>
-      <c r="C127" t="s">
-        <v>40</v>
-      </c>
-      <c r="D127" t="s">
-        <v>41</v>
-      </c>
-      <c r="E127" t="s">
-        <v>49</v>
-      </c>
-      <c r="F127"/>
-      <c r="G127" s="1" t="n">
-        <v>43259</v>
-      </c>
-      <c r="H127" s="1" t="n">
-        <v>43332</v>
-      </c>
-      <c r="I127" t="s">
-        <v>231</v>
-      </c>
-      <c r="J127" t="s">
-        <v>232</v>
-      </c>
-      <c r="K127"/>
-      <c r="L127"/>
-      <c r="M127" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N127"/>
-      <c r="O127" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P127" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S127" t="n">
-        <v>0</v>
-      </c>
-      <c r="T127" t="n">
-        <v>0</v>
-      </c>
-      <c r="U127" t="n">
-        <v>0</v>
-      </c>
-      <c r="V127" t="n">
-        <v>0</v>
-      </c>
-      <c r="W127" t="n">
-        <v>0</v>
-      </c>
-      <c r="X127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH127"/>
-      <c r="AI127"/>
-      <c r="AJ127"/>
-      <c r="AK127" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL127" t="n">
-        <v>179000</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>38</v>
-      </c>
-      <c r="B128" t="s">
-        <v>39</v>
-      </c>
-      <c r="C128" t="s">
-        <v>40</v>
-      </c>
-      <c r="D128" t="s">
-        <v>41</v>
-      </c>
-      <c r="E128" t="s">
-        <v>49</v>
-      </c>
-      <c r="F128"/>
-      <c r="G128" s="1" t="n">
-        <v>43320</v>
-      </c>
-      <c r="H128" s="1" t="n">
-        <v>43381</v>
-      </c>
-      <c r="I128" t="s">
-        <v>233</v>
-      </c>
-      <c r="J128" t="s">
-        <v>234</v>
-      </c>
-      <c r="K128"/>
-      <c r="L128"/>
-      <c r="M128" t="n">
-        <v>0.749971</v>
-      </c>
-      <c r="N128"/>
-      <c r="O128" t="n">
-        <v>0.749971</v>
-      </c>
-      <c r="P128" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>0</v>
-      </c>
-      <c r="R128" t="n">
-        <v>0</v>
-      </c>
-      <c r="S128" t="n">
-        <v>0</v>
-      </c>
-      <c r="T128" t="n">
-        <v>0</v>
-      </c>
-      <c r="U128" t="n">
-        <v>0</v>
-      </c>
-      <c r="V128" t="n">
-        <v>0</v>
-      </c>
-      <c r="W128" t="n">
-        <v>0</v>
-      </c>
-      <c r="X128" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>0.749971</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>0.749971</v>
-      </c>
-      <c r="AH128"/>
-      <c r="AI128"/>
-      <c r="AJ128"/>
-      <c r="AK128" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL128" t="n">
         <v>181218</v>
       </c>
     </row>

--- a/output/Kenya_formatted.xlsx
+++ b/output/Kenya_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -128,6 +128,12 @@
     <t xml:space="preserve">Flow ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Recipient Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recipient Organisation Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">KEN</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">UN agency</t>
+  </si>
+  <si>
     <t xml:space="preserve">Global Information Services Section - Nairobi</t>
   </si>
   <si>
@@ -161,6 +170,12 @@
     <t xml:space="preserve">D002531</t>
   </si>
   <si>
+    <t xml:space="preserve">Canadian Food Grains Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGO</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States of America, Government of</t>
   </si>
   <si>
@@ -170,6 +185,9 @@
     <t xml:space="preserve">SM160517</t>
   </si>
   <si>
+    <t xml:space="preserve">United Nations Children's Fund</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kenya: Support UNICEF Kenya's Nutrition Programme (USAID/OFDA)</t>
   </si>
   <si>
@@ -188,6 +206,12 @@
     <t xml:space="preserve">Appeal n°MDRKE039</t>
   </si>
   <si>
+    <t xml:space="preserve">Kenyan Red Cross Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Cross/Red Crescent</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denmark, Government of</t>
   </si>
   <si>
@@ -197,27 +221,42 @@
     <t xml:space="preserve">2016-42679</t>
   </si>
   <si>
+    <t xml:space="preserve">Danish Red Cross</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kenya, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Bridging relief and resilience in the arid and semi-arid lands</t>
   </si>
   <si>
+    <t xml:space="preserve">World Food Programme</t>
+  </si>
+  <si>
     <t xml:space="preserve">shallow Well (15 projects)</t>
   </si>
   <si>
+    <t xml:space="preserve">Direct Aid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Protection and assistance for refugees in Kenya</t>
   </si>
   <si>
+    <t xml:space="preserve">United Nations High Commissioner for Refugees</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sweden, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Food (cash/vouchers), Access to Water and Hygiene</t>
   </si>
   <si>
+    <t xml:space="preserve">Plan International</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ireland, Government of</t>
   </si>
   <si>
@@ -227,51 +266,57 @@
     <t xml:space="preserve">IRC 17 01</t>
   </si>
   <si>
+    <t xml:space="preserve">International Rescue Committee</t>
+  </si>
+  <si>
     <t xml:space="preserve">shallow Well (5 projects)</t>
   </si>
   <si>
+    <t xml:space="preserve">Kenya - Nutrition and WASH response and mitigation of drought (SM170119)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM170119</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bridging Relief and Resilience in the Arid and Semi-Arid Lands (D004505)</t>
   </si>
   <si>
-    <t xml:space="preserve">Kenya - Nutrition and WASH response and mitigation of drought (SM170119)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM170119</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kenya:Education forRefugee Children and Youth (SM170154)</t>
   </si>
   <si>
     <t xml:space="preserve">SM170154</t>
   </si>
   <si>
+    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency nutrition- Kenya -SHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM170162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency nutrition- Kenya -SHO (SM170163)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM170163</t>
+  </si>
+  <si>
     <t xml:space="preserve">OCT 5552 [OCT 5552];[7063327; D004488]</t>
   </si>
   <si>
     <t xml:space="preserve">[OCT 5552];[7063327; D004488]</t>
   </si>
   <si>
-    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency nutrition- Kenya -SHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM170162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency nutrition- Kenya -SHO (SM170163)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM170163</t>
-  </si>
-  <si>
     <t xml:space="preserve">Belgium, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Protecting livestock assets and safeguarding livelihoods in cross-border areas of the Mandera Cluster</t>
   </si>
   <si>
+    <t xml:space="preserve">Food &amp; Agriculture Organization of the United Nations</t>
+  </si>
+  <si>
     <t xml:space="preserve">Central Emergency Response Fund</t>
   </si>
   <si>
@@ -290,45 +335,54 @@
     <t xml:space="preserve">Provision of Life-saving Services for Survivors of Gender-Based Violence in Five Drought Affected Counties in Kenya</t>
   </si>
   <si>
+    <t xml:space="preserve">United Nations Population Fund</t>
+  </si>
+  <si>
     <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
   </si>
   <si>
+    <t xml:space="preserve">Improvement and maintenance of Water Supply, Sanitation and Hygiene (WASH) conditions in Kakuma refugee camp (ECHO/-HF/BUD/2017/91020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECHO/-HF/BUD/2017/91020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwegian Refugee Council</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency Education and Protection Response for Refugee Children in Kenya (part of ECHO/-HF/BUD/2017/91026)</t>
   </si>
   <si>
     <t xml:space="preserve">SM170186/part of ECHO/-HF/BUD/2017/91026</t>
   </si>
   <si>
+    <t xml:space="preserve">Water security for 200,000 people in drought-affected counties in Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-RR-CEF-035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support to treatment of Moderate Acute Malnutrition (MAM) among Children 6-59 months, and Pregnant and Lactating Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10029681/001-C-01581-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustaining the supply of Water, Sanitation and Hygiene (WASH) for refugees living in Dadaab camps (ECHO/-HF/BUD/2017/91019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECHO/-HF/BUD/2017/91019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARE International</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency livelihood response to support drought-affected (agro)pastoralists</t>
   </si>
   <si>
     <t xml:space="preserve">17-RR-FAO-017</t>
   </si>
   <si>
-    <t xml:space="preserve">Support to treatment of Moderate Acute Malnutrition (MAM) among Children 6-59 months, and Pregnant and Lactating Women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10029681/001-C-01581-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water security for 200,000 people in drought-affected counties in Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-RR-CEF-035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustaining the supply of Water, Sanitation and Hygiene (WASH) for refugees living in Dadaab camps (ECHO/-HF/BUD/2017/91019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHO/-HF/BUD/2017/91019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improvement and maintenance of Water Supply, Sanitation and Hygiene (WASH) conditions in Kakuma refugee camp (ECHO/-HF/BUD/2017/91020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHO/-HF/BUD/2017/91020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accelerate nutrition response to the drought emergency in ASAL</t>
   </si>
   <si>
@@ -344,12 +398,18 @@
     <t xml:space="preserve">17-RR-WHO-01</t>
   </si>
   <si>
+    <t xml:space="preserve">World Health Organization</t>
+  </si>
+  <si>
     <t xml:space="preserve">Strengthened and coordinated emergency response in arid lands of Kenya (ECHO/-HF/BUD/2017/91043)</t>
   </si>
   <si>
     <t xml:space="preserve">ECHO/-HF/BUD/2017/91043</t>
   </si>
   <si>
+    <t xml:space="preserve">OXFAM GB</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADRA support for drought-affected Mandera West (D002531).</t>
   </si>
   <si>
@@ -374,12 +434,12 @@
     <t xml:space="preserve">Emergency food assistance</t>
   </si>
   <si>
+    <t xml:space="preserve">Government</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bridging relief and resilience in the arid and semi-arid lands (Miscellaneous income)</t>
   </si>
   <si>
-    <t xml:space="preserve">World Food Programme</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bridging relief and resilience in the arid and semi-arid lands (Allocation from unearmarked funds)</t>
   </si>
   <si>
@@ -389,6 +449,9 @@
     <t xml:space="preserve">2016-42658</t>
   </si>
   <si>
+    <t xml:space="preserve">ACT Alliance / DanChurchAid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Improved health, nutritional status and protection for refugees and surrounding host communities in Kenya (ECHO/-HF/BUD/2017/91048)</t>
   </si>
   <si>
@@ -401,15 +464,24 @@
     <t xml:space="preserve">ECHO/-HF/BUD/2017/91042</t>
   </si>
   <si>
+    <t xml:space="preserve">Vétérinaires sans Frontières (Germany)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondment of Environment Officer to WFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swedish Civil Contingencies Agency (MSB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency Grant Aid in response to famine disaster in the Middle East and Africa regions;  Provision of Health and Nutrition Assistance to the Drought Affected Communities in Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Federation of Red Cross and Red Crescent Societies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protection and Assistance to refugees in the Dadaab and Kakuma refugee camps in Kenya/ WASH INTERVENTION FOR REFUGEE HOSTING COMMUNITIES (ECHO/-HF/BUD/2017/91050)</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondment of Environment Officer to WFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency Grant Aid in response to famine disaster in the Middle East and Africa regions;  Provision of Health and Nutrition Assistance to the Drought Affected Communities in Kenya</t>
-  </si>
-  <si>
     <t xml:space="preserve">France, Government of</t>
   </si>
   <si>
@@ -419,9 +491,15 @@
     <t xml:space="preserve">Emergency Response in Garissa County, North East Kenya</t>
   </si>
   <si>
+    <t xml:space="preserve">Islamic Relief Worldwide</t>
+  </si>
+  <si>
     <t xml:space="preserve">Humanitarian support 2017</t>
   </si>
   <si>
+    <t xml:space="preserve">ACT Alliance / Church of Sweden</t>
+  </si>
+  <si>
     <t xml:space="preserve">Germany, Government of</t>
   </si>
   <si>
@@ -431,6 +509,9 @@
     <t xml:space="preserve">AA-S09-321.50 KEN 02/17</t>
   </si>
   <si>
+    <t xml:space="preserve">Johanniter Unfallhilfe e.V.</t>
+  </si>
+  <si>
     <t xml:space="preserve">AID-OFDA-IO-16-00088-02</t>
   </si>
   <si>
@@ -440,13 +521,19 @@
     <t xml:space="preserve">Support to 13 Drought-affected Priority Counties</t>
   </si>
   <si>
+    <t xml:space="preserve">Swedish Red Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCCC support for drought-affected Turkana.(D002531)</t>
+  </si>
+  <si>
     <t xml:space="preserve">To save lives and alleviate suffering</t>
   </si>
   <si>
     <t xml:space="preserve">TRO ERFS 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">MCCC support for drought-affected Turkana.(D002531)</t>
+    <t xml:space="preserve">Trocaire</t>
   </si>
   <si>
     <t xml:space="preserve">Water, Sanitation and Hygiene (USAID/OFDA)</t>
@@ -497,6 +584,9 @@
     <t xml:space="preserve">AA-S09 321.50 KEN 06/17</t>
   </si>
   <si>
+    <t xml:space="preserve">Vétérinaire sans Frontieres</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNICEF National Committee/Belgium</t>
   </si>
   <si>
@@ -512,6 +602,9 @@
     <t xml:space="preserve">AID-OFDA-G-17-00169</t>
   </si>
   <si>
+    <t xml:space="preserve">Wajir South Development Association</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency measures to secure access to food and drinking water trhough mobile cash transfers</t>
   </si>
   <si>
@@ -530,6 +623,9 @@
     <t xml:space="preserve">AA-S09-321.50 KEN 07/17</t>
   </si>
   <si>
+    <t xml:space="preserve">Deutsche Welthungerhilfe e.V. (German Agro Action)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Psychosocial support in case of breakout of conflict during the 2017-elections in Kenya</t>
   </si>
   <si>
@@ -539,6 +635,24 @@
     <t xml:space="preserve">AA-S09 321.50 KEN 04/17</t>
   </si>
   <si>
+    <t xml:space="preserve">ERDO support for drought-affected people in Marsabit district.(D002531)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water, Sanitation and Hygiene,Nutrition (USAID/OFDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AID-OFDA-G-17-00269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercy-USA for Aid and Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AID-OFDA-G-17-00220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the Children</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hungary, Government of</t>
   </si>
   <si>
@@ -548,49 +662,52 @@
     <t xml:space="preserve">201068,200777,200572,*844,*736</t>
   </si>
   <si>
-    <t xml:space="preserve">ERDO support for drought-affected people in Marsabit district.(D002531)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water, Sanitation and Hygiene,Nutrition (USAID/OFDA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AID-OFDA-G-17-00220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AID-OFDA-G-17-00269</t>
-  </si>
-  <si>
     <t xml:space="preserve">AID-OFDA-G-17-00283</t>
   </si>
   <si>
+    <t xml:space="preserve">World Vision International</t>
+  </si>
+  <si>
     <t xml:space="preserve">Water, Sanitation and Hygiene,Nutrition,Agriculture and Food Security (USAID/OFDA)</t>
   </si>
   <si>
     <t xml:space="preserve">AID-OFDA-G-17-00204</t>
   </si>
   <si>
+    <t xml:space="preserve">Food for the Hungry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water, Sanitation and Hygiene,Economic Recovery and Market Systems,Agriculture and Food Security (USAID/OFDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AID-OFDA-G-17-00270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rural Organization for Advocacy and Development International</t>
+  </si>
+  <si>
     <t xml:space="preserve">Water, Sanitation and Hygiene,Economic Recovery and Market Systems,Agriculture and Food Security(USAID/OFDA)</t>
   </si>
   <si>
-    <t xml:space="preserve">AID-OFDA-G-17-00270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water, Sanitation and Hygiene,Economic Recovery and Market Systems,Agriculture and Food Security (USAID/OFDA)</t>
+    <t xml:space="preserve">Rural Agency for Community Development and Assistance</t>
   </si>
   <si>
     <t xml:space="preserve">10030594/USA-C-01332-01</t>
   </si>
   <si>
+    <t xml:space="preserve">Bridging Relief and Resilience in the Arid and Semi-Arid Lands  (part of ECHO/-HF/BUD/2017/91049)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECHO/-HF/BUD/2017/91049</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enabling resilience to the drought situation for the most vulnerable households in Marsabit County, Kenya, through unconditional cash transfers (ECHO/-HF/BUD/2017/91047)</t>
   </si>
   <si>
     <t xml:space="preserve">ECHO/-HF/BUD/2017/91047</t>
   </si>
   <si>
-    <t xml:space="preserve">Bridging Relief and Resilience in the Arid and Semi-Arid Lands  (part of ECHO/-HF/BUD/2017/91049)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHO/-HF/BUD/2017/91049</t>
+    <t xml:space="preserve">British Red Cross</t>
   </si>
   <si>
     <t xml:space="preserve">Food Assistance to Refugees and Nutrition Response to Drought (part of ECHO/-HF/BUD/2017/91049)</t>
@@ -602,6 +719,9 @@
     <t xml:space="preserve">AID-OFDA-G-17-00276</t>
   </si>
   <si>
+    <t xml:space="preserve">Concern Worldwide</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kenya:Support for an Emergency Food Security Program (SM170434) (USAID/FFP)</t>
   </si>
   <si>
@@ -611,10 +731,13 @@
     <t xml:space="preserve">Kenya:Support for an Emergency Food Security Program (SM170434)  (USAID/FFP)</t>
   </si>
   <si>
+    <t xml:space="preserve">AID-OFDA-G-17-00280</t>
+  </si>
+  <si>
     <t xml:space="preserve">AID-OFDA-G-17-00293</t>
   </si>
   <si>
-    <t xml:space="preserve">AID-OFDA-G-17-00280</t>
+    <t xml:space="preserve">Agency for Technical Cooperation and Development</t>
   </si>
   <si>
     <t xml:space="preserve">10029684/USA-C-01354-01</t>
@@ -677,7 +800,13 @@
     <t xml:space="preserve">2017-240</t>
   </si>
   <si>
+    <t xml:space="preserve">Action Contre la Faim</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contribution au HCR pour les réfugiés somaliens au Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Care and Relief Foundation</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya/Drought: Program Support (USAID/OFDA)</t>
@@ -1166,22 +1295,28 @@
       <c r="AL1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -1191,10 +1326,10 @@
         <v>43164</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
@@ -1268,22 +1403,28 @@
       <c r="AL2" t="n">
         <v>159491</v>
       </c>
+      <c r="AM2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -1293,10 +1434,10 @@
         <v>43164</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -1370,22 +1511,28 @@
       <c r="AL3" t="n">
         <v>159562</v>
       </c>
+      <c r="AM3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -1395,10 +1542,10 @@
         <v>42810</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>0.494661</v>
@@ -1476,22 +1623,28 @@
       <c r="AL4" t="n">
         <v>153795</v>
       </c>
+      <c r="AM4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1501,10 +1654,10 @@
         <v>42810</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K5" t="n">
         <v>0.18</v>
@@ -1582,22 +1735,28 @@
       <c r="AL5" t="n">
         <v>153798</v>
       </c>
+      <c r="AM5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -1607,10 +1766,10 @@
         <v>43136</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
@@ -1684,22 +1843,28 @@
       <c r="AL6" t="n">
         <v>170287</v>
       </c>
+      <c r="AM6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -1709,10 +1874,10 @@
         <v>43014</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -1786,22 +1951,28 @@
       <c r="AL7" t="n">
         <v>164594</v>
       </c>
+      <c r="AM7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -1811,10 +1982,10 @@
         <v>43136</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -1888,22 +2059,28 @@
       <c r="AL8" t="n">
         <v>170283</v>
       </c>
+      <c r="AM8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -1913,10 +2090,10 @@
         <v>42940</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1990,22 +2167,28 @@
       <c r="AL9" t="n">
         <v>161908</v>
       </c>
+      <c r="AM9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -2015,10 +2198,10 @@
         <v>42851</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K10" t="n">
         <v>0.5</v>
@@ -2096,22 +2279,28 @@
       <c r="AL10" t="n">
         <v>154448</v>
       </c>
+      <c r="AM10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -2121,10 +2310,10 @@
         <v>43091</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K11" t="n">
         <v>1.5</v>
@@ -2202,22 +2391,28 @@
       <c r="AL11" t="n">
         <v>155287</v>
       </c>
+      <c r="AM11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
@@ -2227,10 +2422,10 @@
         <v>43027</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
@@ -2304,22 +2499,28 @@
       <c r="AL12" t="n">
         <v>157331</v>
       </c>
+      <c r="AM12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -2329,10 +2530,10 @@
         <v>42929</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13" t="n">
         <v>0.00747</v>
@@ -2410,22 +2611,28 @@
       <c r="AL13" t="n">
         <v>161435</v>
       </c>
+      <c r="AM13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -2435,10 +2642,10 @@
         <v>42857</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
@@ -2512,22 +2719,28 @@
       <c r="AL14" t="n">
         <v>157690</v>
       </c>
+      <c r="AM14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
@@ -2537,10 +2750,10 @@
         <v>43049</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K15" t="n">
         <v>2.6</v>
@@ -2618,22 +2831,28 @@
       <c r="AL15" t="n">
         <v>154850</v>
       </c>
+      <c r="AM15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
@@ -2643,10 +2862,10 @@
         <v>42850</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="K16" t="n">
         <v>0.086</v>
@@ -2724,22 +2943,28 @@
       <c r="AL16" t="n">
         <v>155389</v>
       </c>
+      <c r="AM16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
@@ -2749,10 +2974,10 @@
         <v>43027</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -2826,22 +3051,28 @@
       <c r="AL17" t="n">
         <v>157330</v>
       </c>
+      <c r="AM17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
@@ -2851,10 +3082,10 @@
         <v>42929</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18" t="n">
         <v>0.00249</v>
@@ -2932,48 +3163,50 @@
       <c r="AL18" t="n">
         <v>161436</v>
       </c>
+      <c r="AM18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
         <v>42810</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>43027</v>
+        <v>43060</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.345</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
       <c r="M19" t="n">
-        <v>0.743494</v>
+        <v>0.24035</v>
       </c>
       <c r="N19"/>
       <c r="O19" t="n">
-        <v>0.743494</v>
+        <v>0.24035</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2985,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.743494</v>
+        <v>0.24035</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -3027,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.743494</v>
+        <v>0.24035</v>
       </c>
       <c r="AH19"/>
       <c r="AI19"/>
@@ -3036,46 +3269,52 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>156614</v>
+        <v>159909</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
         <v>42810</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>43060</v>
+        <v>42942</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" t="n">
-        <v>0.24035</v>
+        <v>0.25965</v>
       </c>
       <c r="N20"/>
       <c r="O20" t="n">
-        <v>0.24035</v>
+        <v>0.25965</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -3087,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.24035</v>
+        <v>0.25965</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -3129,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.24035</v>
+        <v>0.25965</v>
       </c>
       <c r="AH20"/>
       <c r="AI20"/>
@@ -3138,46 +3377,56 @@
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>159909</v>
+        <v>162026</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
         <v>42810</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>42942</v>
+        <v>43027</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21"/>
-      <c r="L21"/>
+        <v>46</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.345</v>
+      </c>
       <c r="M21" t="n">
-        <v>0.25965</v>
+        <v>0.743494</v>
       </c>
       <c r="N21"/>
       <c r="O21" t="n">
-        <v>0.25965</v>
+        <v>0.743494</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -3189,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.25965</v>
+        <v>0.743494</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -3231,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.25965</v>
+        <v>0.743494</v>
       </c>
       <c r="AH21"/>
       <c r="AI21"/>
@@ -3240,24 +3489,30 @@
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>162026</v>
+        <v>156614</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
@@ -3267,10 +3522,10 @@
         <v>43061</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
@@ -3344,48 +3599,50 @@
       <c r="AL22" t="n">
         <v>159959</v>
       </c>
+      <c r="AM22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
         <v>42822</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>42846</v>
+        <v>43060</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.0707</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.345</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
       <c r="M23" t="n">
-        <v>0.052565</v>
+        <v>0.373533</v>
       </c>
       <c r="N23"/>
       <c r="O23" t="n">
-        <v>0.052565</v>
+        <v>0.373533</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3397,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.052565</v>
+        <v>0.373533</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -3439,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.052565</v>
+        <v>0.373533</v>
       </c>
       <c r="AH23"/>
       <c r="AI23"/>
@@ -3448,24 +3705,30 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>154754</v>
+        <v>159910</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
@@ -3475,19 +3738,19 @@
         <v>43060</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>0.373533</v>
+        <v>0.106724</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="n">
-        <v>0.373533</v>
+        <v>0.106724</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3499,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.373533</v>
+        <v>0.106724</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -3541,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.373533</v>
+        <v>0.106724</v>
       </c>
       <c r="AH24"/>
       <c r="AI24"/>
@@ -3550,46 +3813,56 @@
         <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>159910</v>
+        <v>159911</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
         <v>42822</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>43060</v>
+        <v>42846</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
-      </c>
-      <c r="K25"/>
-      <c r="L25"/>
+        <v>97</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.345</v>
+      </c>
       <c r="M25" t="n">
-        <v>0.106724</v>
+        <v>0.052565</v>
       </c>
       <c r="N25"/>
       <c r="O25" t="n">
-        <v>0.106724</v>
+        <v>0.052565</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3601,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.106724</v>
+        <v>0.052565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -3643,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.106724</v>
+        <v>0.052565</v>
       </c>
       <c r="AH25"/>
       <c r="AI25"/>
@@ -3652,24 +3925,30 @@
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>159911</v>
+        <v>154754</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -3679,10 +3958,10 @@
         <v>43062</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -3756,22 +4035,28 @@
       <c r="AL26" t="n">
         <v>157168</v>
       </c>
+      <c r="AM26" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -3781,10 +4066,10 @@
         <v>43060</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
@@ -3858,22 +4143,28 @@
       <c r="AL27" t="n">
         <v>156567</v>
       </c>
+      <c r="AM27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
@@ -3883,10 +4174,10 @@
         <v>42850</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -3960,22 +4251,28 @@
       <c r="AL28" t="n">
         <v>156568</v>
       </c>
+      <c r="AM28" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -3985,10 +4282,10 @@
         <v>42877</v>
       </c>
       <c r="I29" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
@@ -4062,48 +4359,54 @@
       <c r="AL29" t="n">
         <v>156569</v>
       </c>
+      <c r="AM29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
         <v>42832</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>43055</v>
+        <v>43616</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L30" t="n">
         <v>0.931</v>
       </c>
       <c r="M30" t="n">
-        <v>0.429646</v>
+        <v>0.859291</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>0.429646</v>
+        <v>0.859291</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4118,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.429646</v>
+        <v>0.859291</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -4157,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.429646</v>
+        <v>0.859291</v>
       </c>
       <c r="AH30"/>
       <c r="AI30"/>
@@ -4166,46 +4469,56 @@
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>156650</v>
+        <v>158781</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
         <v>42832</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>43062</v>
+        <v>43055</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31"/>
-      <c r="L31"/>
+        <v>113</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.931</v>
+      </c>
       <c r="M31" t="n">
-        <v>1.5</v>
+        <v>0.429646</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>1.5</v>
+        <v>0.429646</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -4220,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.5</v>
+        <v>0.429646</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -4259,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.5</v>
+        <v>0.429646</v>
       </c>
       <c r="AH31"/>
       <c r="AI31"/>
@@ -4268,46 +4581,52 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>156686</v>
+        <v>156650</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
         <v>42832</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>43060</v>
+        <v>42843</v>
       </c>
       <c r="I32" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32" t="n">
-        <v>4.000132</v>
+        <v>1.800128</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>4.000132</v>
+        <v>1.800128</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -4322,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>4.000132</v>
+        <v>1.800128</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -4361,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>4.000132</v>
+        <v>1.800128</v>
       </c>
       <c r="AH32"/>
       <c r="AI32"/>
@@ -4370,46 +4689,56 @@
         <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>156687</v>
+        <v>156688</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
         <v>42832</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>42843</v>
+        <v>43055</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33"/>
-      <c r="L33"/>
+        <v>113</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.931</v>
+      </c>
       <c r="M33" t="n">
-        <v>1.800128</v>
+        <v>0.429646</v>
       </c>
       <c r="N33"/>
       <c r="O33" t="n">
-        <v>1.800128</v>
+        <v>0.429646</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -4424,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.800128</v>
+        <v>0.429646</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -4463,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.800128</v>
+        <v>0.429646</v>
       </c>
       <c r="AH33"/>
       <c r="AI33"/>
@@ -4472,50 +4801,52 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>156688</v>
+        <v>162028</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
         <v>42832</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>43651</v>
+        <v>43060</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.931</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
       <c r="M34" t="n">
-        <v>1.074114</v>
+        <v>4.000132</v>
       </c>
       <c r="N34"/>
       <c r="O34" t="n">
-        <v>1.074114</v>
+        <v>4.000132</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4530,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.074114</v>
+        <v>4.000132</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -4569,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.074114</v>
+        <v>4.000132</v>
       </c>
       <c r="AH34"/>
       <c r="AI34"/>
@@ -4578,50 +4909,56 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>157141</v>
+        <v>156687</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
         <v>42832</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>43616</v>
+        <v>43651</v>
       </c>
       <c r="I35" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0.931</v>
       </c>
       <c r="M35" t="n">
-        <v>0.859291</v>
+        <v>1.074114</v>
       </c>
       <c r="N35"/>
       <c r="O35" t="n">
-        <v>0.859291</v>
+        <v>1.074114</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -4636,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.859291</v>
+        <v>1.074114</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -4675,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.859291</v>
+        <v>1.074114</v>
       </c>
       <c r="AH35"/>
       <c r="AI35"/>
@@ -4684,50 +5021,52 @@
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>158781</v>
+        <v>157141</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
         <v>42832</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>43055</v>
+        <v>43062</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.931</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36"/>
       <c r="M36" t="n">
-        <v>0.429646</v>
+        <v>1.5</v>
       </c>
       <c r="N36"/>
       <c r="O36" t="n">
-        <v>0.429646</v>
+        <v>1.5</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4742,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.429646</v>
+        <v>1.5</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -4781,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.429646</v>
+        <v>1.5</v>
       </c>
       <c r="AH36"/>
       <c r="AI36"/>
@@ -4790,50 +5129,52 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>162028</v>
+        <v>156686</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
-        <v>42835</v>
+        <v>42831</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>43256</v>
+        <v>43151</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>6.926</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37"/>
       <c r="M37" t="n">
-        <v>1.212821</v>
+        <v>1.500048</v>
       </c>
       <c r="N37"/>
       <c r="O37" t="n">
-        <v>1.212821</v>
+        <v>1.500048</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4848,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.212821</v>
+        <v>1.500048</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4887,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>1.212821</v>
+        <v>1.500048</v>
       </c>
       <c r="AH37"/>
       <c r="AI37"/>
@@ -4896,46 +5237,56 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>157328</v>
+        <v>168035</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
-        <v>42831</v>
+        <v>42835</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>43151</v>
+        <v>43256</v>
       </c>
       <c r="I38" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s">
-        <v>88</v>
-      </c>
-      <c r="K38"/>
-      <c r="L38"/>
+        <v>46</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6.926</v>
+      </c>
       <c r="M38" t="n">
-        <v>1.500048</v>
+        <v>1.212821</v>
       </c>
       <c r="N38"/>
       <c r="O38" t="n">
-        <v>1.500048</v>
+        <v>1.212821</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -4950,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.500048</v>
+        <v>1.212821</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -4989,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>1.500048</v>
+        <v>1.212821</v>
       </c>
       <c r="AH38"/>
       <c r="AI38"/>
@@ -4998,24 +5349,30 @@
         <v>0</v>
       </c>
       <c r="AL38" t="n">
-        <v>168035</v>
+        <v>157328</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
@@ -5025,10 +5382,10 @@
         <v>42851</v>
       </c>
       <c r="I39" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
@@ -5102,22 +5459,28 @@
       <c r="AL39" t="n">
         <v>156798</v>
       </c>
+      <c r="AM39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
@@ -5127,10 +5490,10 @@
         <v>42877</v>
       </c>
       <c r="I40" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="J40" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
@@ -5204,22 +5567,28 @@
       <c r="AL40" t="n">
         <v>156799</v>
       </c>
+      <c r="AM40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
@@ -5229,10 +5598,10 @@
         <v>43103</v>
       </c>
       <c r="I41" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -5306,22 +5675,28 @@
       <c r="AL41" t="n">
         <v>156800</v>
       </c>
+      <c r="AM41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
@@ -5331,10 +5706,10 @@
         <v>43097</v>
       </c>
       <c r="I42" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="J42" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="K42" t="n">
         <v>1.5</v>
@@ -5412,22 +5787,28 @@
       <c r="AL42" t="n">
         <v>157307</v>
       </c>
+      <c r="AM42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
@@ -5437,10 +5818,10 @@
         <v>42853</v>
       </c>
       <c r="I43" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K43" t="n">
         <v>0.499691</v>
@@ -5518,22 +5899,28 @@
       <c r="AL43" t="n">
         <v>157573</v>
       </c>
+      <c r="AM43" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
@@ -5543,10 +5930,10 @@
         <v>43040</v>
       </c>
       <c r="I44" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="J44" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
@@ -5620,22 +6007,28 @@
       <c r="AL44" t="n">
         <v>158984</v>
       </c>
+      <c r="AM44" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
@@ -5645,10 +6038,10 @@
         <v>43060</v>
       </c>
       <c r="I45" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="J45" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -5722,22 +6115,28 @@
       <c r="AL45" t="n">
         <v>159913</v>
       </c>
+      <c r="AM45" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
@@ -5747,10 +6146,10 @@
         <v>43060</v>
       </c>
       <c r="I46" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="J46" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
@@ -5824,22 +6223,28 @@
       <c r="AL46" t="n">
         <v>159914</v>
       </c>
+      <c r="AM46" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
@@ -5849,10 +6254,10 @@
         <v>42845</v>
       </c>
       <c r="I47" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K47" t="n">
         <v>150</v>
@@ -5930,22 +6335,28 @@
       <c r="AL47" t="n">
         <v>157218</v>
       </c>
+      <c r="AM47" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
@@ -5955,10 +6366,10 @@
         <v>43089</v>
       </c>
       <c r="I48" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
@@ -6032,22 +6443,28 @@
       <c r="AL48" t="n">
         <v>157333</v>
       </c>
+      <c r="AM48" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -6057,10 +6474,10 @@
         <v>43089</v>
       </c>
       <c r="I49" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
@@ -6134,22 +6551,28 @@
       <c r="AL49" t="n">
         <v>157334</v>
       </c>
+      <c r="AM49" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
@@ -6159,10 +6582,10 @@
         <v>42851</v>
       </c>
       <c r="I50" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="J50" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="K50" t="n">
         <v>0.5</v>
@@ -6240,48 +6663,50 @@
       <c r="AL50" t="n">
         <v>157434</v>
       </c>
+      <c r="AM50" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
         <v>42849</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>43055</v>
+        <v>43060</v>
       </c>
       <c r="I51" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="J51" t="s">
-        <v>126</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.931</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K51"/>
+      <c r="L51"/>
       <c r="M51" t="n">
-        <v>1.181525</v>
+        <v>0.265393</v>
       </c>
       <c r="N51"/>
       <c r="O51" t="n">
-        <v>1.181525</v>
+        <v>0.265393</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -6296,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1.181525</v>
+        <v>0.265393</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -6335,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="AG51" t="n">
-        <v>1.181525</v>
+        <v>0.265393</v>
       </c>
       <c r="AH51"/>
       <c r="AI51"/>
@@ -6344,24 +6769,30 @@
         <v>0</v>
       </c>
       <c r="AL51" t="n">
-        <v>157444</v>
+        <v>159912</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
@@ -6371,23 +6802,23 @@
         <v>43055</v>
       </c>
       <c r="I52" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="J52" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K52" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="L52" t="n">
         <v>0.931</v>
       </c>
       <c r="M52" t="n">
-        <v>1.611171</v>
+        <v>1.181525</v>
       </c>
       <c r="N52"/>
       <c r="O52" t="n">
-        <v>1.611171</v>
+        <v>1.181525</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -6402,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1.611171</v>
+        <v>1.181525</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -6441,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>1.611171</v>
+        <v>1.181525</v>
       </c>
       <c r="AH52"/>
       <c r="AI52"/>
@@ -6450,46 +6881,56 @@
         <v>0</v>
       </c>
       <c r="AL52" t="n">
-        <v>157446</v>
+        <v>157444</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
         <v>42849</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>43060</v>
+        <v>43055</v>
       </c>
       <c r="I53" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
-      </c>
-      <c r="K53"/>
-      <c r="L53"/>
+        <v>149</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.931</v>
+      </c>
       <c r="M53" t="n">
-        <v>0.265393</v>
+        <v>1.611171</v>
       </c>
       <c r="N53"/>
       <c r="O53" t="n">
-        <v>0.265393</v>
+        <v>1.611171</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -6504,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0.265393</v>
+        <v>1.611171</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -6543,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.265393</v>
+        <v>1.611171</v>
       </c>
       <c r="AH53"/>
       <c r="AI53"/>
@@ -6552,50 +6993,56 @@
         <v>0</v>
       </c>
       <c r="AL53" t="n">
-        <v>159912</v>
+        <v>157446</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
         <v>42852</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>43055</v>
+        <v>42860</v>
       </c>
       <c r="I54" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K54" t="n">
-        <v>0.819355</v>
+        <v>0.29</v>
       </c>
       <c r="L54" t="n">
-        <v>0.931</v>
+        <v>8.903</v>
       </c>
       <c r="M54" t="n">
-        <v>0.880081</v>
+        <v>0.032573</v>
       </c>
       <c r="N54"/>
       <c r="O54" t="n">
-        <v>0.880081</v>
+        <v>0.032573</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -6610,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0.880081</v>
+        <v>0.032573</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -6649,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.880081</v>
+        <v>0.032573</v>
       </c>
       <c r="AH54"/>
       <c r="AI54"/>
@@ -6658,50 +7105,52 @@
         <v>0</v>
       </c>
       <c r="AL54" t="n">
-        <v>157663</v>
+        <v>157899</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
-        <v>42852</v>
+        <v>42814</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>42860</v>
+        <v>42983</v>
       </c>
       <c r="I55" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="L55" t="n">
-        <v>8.903</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55"/>
       <c r="M55" t="n">
-        <v>0.032573</v>
+        <v>0.5</v>
       </c>
       <c r="N55"/>
       <c r="O55" t="n">
-        <v>0.032573</v>
+        <v>0.5</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -6716,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0.032573</v>
+        <v>0.5</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -6755,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.032573</v>
+        <v>0.5</v>
       </c>
       <c r="AH55"/>
       <c r="AI55"/>
@@ -6764,24 +7213,30 @@
         <v>0</v>
       </c>
       <c r="AL55" t="n">
-        <v>157899</v>
+        <v>163378</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
@@ -6791,23 +7246,23 @@
         <v>43055</v>
       </c>
       <c r="I56" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K56" t="n">
-        <v>0.060268</v>
+        <v>0.819355</v>
       </c>
       <c r="L56" t="n">
         <v>0.931</v>
       </c>
       <c r="M56" t="n">
-        <v>0.064735</v>
+        <v>0.880081</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="n">
-        <v>0.064735</v>
+        <v>0.880081</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -6822,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0.064735</v>
+        <v>0.880081</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -6861,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.064735</v>
+        <v>0.880081</v>
       </c>
       <c r="AH56"/>
       <c r="AI56"/>
@@ -6870,24 +7325,30 @@
         <v>0</v>
       </c>
       <c r="AL56" t="n">
-        <v>158117</v>
+        <v>157663</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -6897,23 +7358,23 @@
         <v>43055</v>
       </c>
       <c r="I57" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K57" t="n">
-        <v>0.020377</v>
+        <v>0.060268</v>
       </c>
       <c r="L57" t="n">
         <v>0.931</v>
       </c>
       <c r="M57" t="n">
-        <v>0.021399</v>
+        <v>0.064735</v>
       </c>
       <c r="N57"/>
       <c r="O57" t="n">
-        <v>0.021399</v>
+        <v>0.064735</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -6928,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0.021399</v>
+        <v>0.064735</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -6967,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.021399</v>
+        <v>0.064735</v>
       </c>
       <c r="AH57"/>
       <c r="AI57"/>
@@ -6976,46 +7437,56 @@
         <v>0</v>
       </c>
       <c r="AL57" t="n">
-        <v>159022</v>
+        <v>158117</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
-        <v>42814</v>
+        <v>42852</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>42983</v>
+        <v>43055</v>
       </c>
       <c r="I58" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
-      </c>
-      <c r="K58"/>
-      <c r="L58"/>
+        <v>46</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.020377</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.931</v>
+      </c>
       <c r="M58" t="n">
-        <v>0.5</v>
+        <v>0.021399</v>
       </c>
       <c r="N58"/>
       <c r="O58" t="n">
-        <v>0.5</v>
+        <v>0.021399</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -7030,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0.5</v>
+        <v>0.021399</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -7069,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.5</v>
+        <v>0.021399</v>
       </c>
       <c r="AH58"/>
       <c r="AI58"/>
@@ -7078,24 +7549,30 @@
         <v>0</v>
       </c>
       <c r="AL58" t="n">
-        <v>163378</v>
+        <v>159022</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
@@ -7105,10 +7582,10 @@
         <v>43027</v>
       </c>
       <c r="I59" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K59" t="n">
         <v>0.5</v>
@@ -7186,22 +7663,28 @@
       <c r="AL59" t="n">
         <v>163748</v>
       </c>
+      <c r="AM59" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
@@ -7211,10 +7694,10 @@
         <v>42867</v>
       </c>
       <c r="I60" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K60" t="n">
         <v>2.5</v>
@@ -7292,22 +7775,28 @@
       <c r="AL60" t="n">
         <v>158221</v>
       </c>
+      <c r="AM60" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
@@ -7317,10 +7806,10 @@
         <v>42867</v>
       </c>
       <c r="I61" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K61" t="n">
         <v>7.6</v>
@@ -7398,22 +7887,28 @@
       <c r="AL61" t="n">
         <v>158222</v>
       </c>
+      <c r="AM61" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E62" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
@@ -7423,10 +7918,10 @@
         <v>43077</v>
       </c>
       <c r="I62" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="J62" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="K62" t="n">
         <v>0.32076</v>
@@ -7504,22 +7999,28 @@
       <c r="AL62" t="n">
         <v>158187</v>
       </c>
+      <c r="AM62" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -7529,10 +8030,10 @@
         <v>43040</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J63" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="K63"/>
       <c r="L63"/>
@@ -7606,22 +8107,28 @@
       <c r="AL63" t="n">
         <v>164593</v>
       </c>
+      <c r="AM63" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -7631,10 +8138,10 @@
         <v>42873</v>
       </c>
       <c r="I64" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K64" t="n">
         <v>0.758</v>
@@ -7712,22 +8219,28 @@
       <c r="AL64" t="n">
         <v>158417</v>
       </c>
+      <c r="AM64" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E65" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="1" t="n">
@@ -7737,10 +8250,10 @@
         <v>42887</v>
       </c>
       <c r="I65" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K65" t="n">
         <v>2</v>
@@ -7818,48 +8331,54 @@
       <c r="AL65" t="n">
         <v>159194</v>
       </c>
+      <c r="AM65" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F66"/>
       <c r="G66" s="1" t="n">
         <v>42878</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>42901</v>
+        <v>42999</v>
       </c>
       <c r="I66" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="J66" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1</v>
+        <v>0.5305</v>
       </c>
       <c r="L66" t="n">
-        <v>0.921</v>
+        <v>1.362</v>
       </c>
       <c r="M66" t="n">
-        <v>0.108578</v>
+        <v>0.389501</v>
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
-        <v>0.108578</v>
+        <v>0.389501</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -7877,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>0.108578</v>
+        <v>0.389501</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -7913,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="AG66" t="n">
-        <v>0.108578</v>
+        <v>0.389501</v>
       </c>
       <c r="AH66"/>
       <c r="AI66"/>
@@ -7922,50 +8441,56 @@
         <v>0</v>
       </c>
       <c r="AL66" t="n">
-        <v>160159</v>
+        <v>163971</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="1" t="n">
         <v>42878</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>42999</v>
+        <v>42901</v>
       </c>
       <c r="I67" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5305</v>
+        <v>0.1</v>
       </c>
       <c r="L67" t="n">
-        <v>1.362</v>
+        <v>0.921</v>
       </c>
       <c r="M67" t="n">
-        <v>0.389501</v>
+        <v>0.108578</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>0.389501</v>
+        <v>0.108578</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -7983,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>0.389501</v>
+        <v>0.108578</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -8019,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="AG67" t="n">
-        <v>0.389501</v>
+        <v>0.108578</v>
       </c>
       <c r="AH67"/>
       <c r="AI67"/>
@@ -8028,24 +8553,30 @@
         <v>0</v>
       </c>
       <c r="AL67" t="n">
-        <v>163971</v>
+        <v>160159</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F68"/>
       <c r="G68" s="1" t="n">
@@ -8055,10 +8586,10 @@
         <v>43040</v>
       </c>
       <c r="I68" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="J68" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="K68"/>
       <c r="L68"/>
@@ -8132,22 +8663,28 @@
       <c r="AL68" t="n">
         <v>165485</v>
       </c>
+      <c r="AM68" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="F69"/>
       <c r="G69" s="1" t="n">
@@ -8157,10 +8694,10 @@
         <v>42905</v>
       </c>
       <c r="I69" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="J69" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="K69" t="n">
         <v>0.5</v>
@@ -8238,22 +8775,28 @@
       <c r="AL69" t="n">
         <v>160317</v>
       </c>
+      <c r="AM69" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="F70"/>
       <c r="G70" s="1" t="n">
@@ -8263,10 +8806,10 @@
         <v>42940</v>
       </c>
       <c r="I70" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="J70" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="K70"/>
       <c r="L70"/>
@@ -8340,22 +8883,28 @@
       <c r="AL70" t="n">
         <v>161911</v>
       </c>
+      <c r="AM70" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="F71"/>
       <c r="G71" s="1" t="n">
@@ -8365,10 +8914,10 @@
         <v>42926</v>
       </c>
       <c r="I71" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="J71" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -8446,22 +8995,28 @@
       <c r="AL71" t="n">
         <v>161176</v>
       </c>
+      <c r="AM71" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="F72"/>
       <c r="G72" s="1" t="n">
@@ -8471,10 +9026,10 @@
         <v>43060</v>
       </c>
       <c r="I72" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="J72" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="K72"/>
       <c r="L72"/>
@@ -8548,22 +9103,28 @@
       <c r="AL72" t="n">
         <v>162029</v>
       </c>
+      <c r="AM72" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="F73"/>
       <c r="G73" s="1" t="n">
@@ -8573,10 +9134,10 @@
         <v>42942</v>
       </c>
       <c r="I73" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="J73" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="K73"/>
       <c r="L73"/>
@@ -8650,22 +9211,28 @@
       <c r="AL73" t="n">
         <v>162030</v>
       </c>
+      <c r="AM73" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="F74"/>
       <c r="G74" s="1" t="n">
@@ -8675,10 +9242,10 @@
         <v>42942</v>
       </c>
       <c r="I74" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="J74" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="K74"/>
       <c r="L74"/>
@@ -8752,22 +9319,28 @@
       <c r="AL74" t="n">
         <v>162031</v>
       </c>
+      <c r="AM74" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="F75"/>
       <c r="G75" s="1" t="n">
@@ -8777,10 +9350,10 @@
         <v>42942</v>
       </c>
       <c r="I75" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="J75" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
@@ -8854,22 +9427,28 @@
       <c r="AL75" t="n">
         <v>162032</v>
       </c>
+      <c r="AM75" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E76" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="F76"/>
       <c r="G76" s="1" t="n">
@@ -8879,10 +9458,10 @@
         <v>42942</v>
       </c>
       <c r="I76" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="J76" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="K76"/>
       <c r="L76"/>
@@ -8956,22 +9535,28 @@
       <c r="AL76" t="n">
         <v>162033</v>
       </c>
+      <c r="AM76" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F77"/>
       <c r="G77" s="1" t="n">
@@ -8981,10 +9566,10 @@
         <v>42933</v>
       </c>
       <c r="I77" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="J77" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="K77" t="n">
         <v>0.5</v>
@@ -9062,22 +9647,28 @@
       <c r="AL77" t="n">
         <v>161310</v>
       </c>
+      <c r="AM77" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="F78"/>
       <c r="G78" s="1" t="n">
@@ -9087,10 +9678,10 @@
         <v>43011</v>
       </c>
       <c r="I78" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="J78" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
@@ -9164,22 +9755,28 @@
       <c r="AL78" t="n">
         <v>164408</v>
       </c>
+      <c r="AM78" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F79"/>
       <c r="G79" s="1" t="n">
@@ -9189,10 +9786,10 @@
         <v>43040</v>
       </c>
       <c r="I79" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="J79" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="K79"/>
       <c r="L79"/>
@@ -9266,22 +9863,28 @@
       <c r="AL79" t="n">
         <v>165480</v>
       </c>
+      <c r="AM79" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN79" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E80" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F80"/>
       <c r="G80" s="1" t="n">
@@ -9291,10 +9894,10 @@
         <v>42940</v>
       </c>
       <c r="I80" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="J80" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="K80" t="n">
         <v>0.5</v>
@@ -9372,22 +9975,28 @@
       <c r="AL80" t="n">
         <v>161877</v>
       </c>
+      <c r="AM80" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN80" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F81"/>
       <c r="G81" s="1" t="n">
@@ -9397,10 +10006,10 @@
         <v>43089</v>
       </c>
       <c r="I81" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="J81" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="K81"/>
       <c r="L81"/>
@@ -9474,22 +10083,28 @@
       <c r="AL81" t="n">
         <v>168258</v>
       </c>
+      <c r="AM81" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN81" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E82" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="1" t="n">
@@ -9499,10 +10114,10 @@
         <v>42940</v>
       </c>
       <c r="I82" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="J82" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="K82" t="n">
         <v>0.855</v>
@@ -9580,22 +10195,28 @@
       <c r="AL82" t="n">
         <v>161842</v>
       </c>
+      <c r="AM82" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F83"/>
       <c r="G83" s="1" t="n">
@@ -9605,10 +10226,10 @@
         <v>43091</v>
       </c>
       <c r="I83" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="J83" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K83" t="n">
         <v>0.2</v>
@@ -9686,22 +10307,28 @@
       <c r="AL83" t="n">
         <v>162179</v>
       </c>
+      <c r="AM83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E84" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F84"/>
       <c r="G84" s="1" t="n">
@@ -9711,10 +10338,10 @@
         <v>43262</v>
       </c>
       <c r="I84" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="J84" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="K84" t="n">
         <v>3</v>
@@ -9792,48 +10419,54 @@
       <c r="AL84" t="n">
         <v>162432</v>
       </c>
+      <c r="AM84" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E85" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="F85"/>
       <c r="G85" s="1" t="n">
         <v>42961</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>42971</v>
+        <v>42999</v>
       </c>
       <c r="I85" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="J85" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0363</v>
+        <v>0.315376</v>
       </c>
       <c r="L85" t="n">
-        <v>0.85</v>
+        <v>1.362</v>
       </c>
       <c r="M85" t="n">
-        <v>0.042706</v>
+        <v>0.231554</v>
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>0.042706</v>
+        <v>0.231554</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -9860,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>0.042706</v>
+        <v>0.231554</v>
       </c>
       <c r="Y85" t="n">
         <v>0</v>
@@ -9887,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="AG85" t="n">
-        <v>0.042706</v>
+        <v>0.231554</v>
       </c>
       <c r="AH85"/>
       <c r="AI85"/>
@@ -9896,50 +10529,52 @@
         <v>0</v>
       </c>
       <c r="AL85" t="n">
-        <v>163039</v>
+        <v>163972</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN85" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F86"/>
       <c r="G86" s="1" t="n">
         <v>42961</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>42999</v>
+        <v>43040</v>
       </c>
       <c r="I86" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.315376</v>
-      </c>
-      <c r="L86" t="n">
-        <v>1.362</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="K86"/>
+      <c r="L86"/>
       <c r="M86" t="n">
-        <v>0.231554</v>
+        <v>1.49949</v>
       </c>
       <c r="N86"/>
       <c r="O86" t="n">
-        <v>0.231554</v>
+        <v>1.49949</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -9966,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>0.231554</v>
+        <v>1.49949</v>
       </c>
       <c r="Y86" t="n">
         <v>0</v>
@@ -9993,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="AG86" t="n">
-        <v>0.231554</v>
+        <v>1.49949</v>
       </c>
       <c r="AH86"/>
       <c r="AI86"/>
@@ -10002,24 +10637,30 @@
         <v>0</v>
       </c>
       <c r="AL86" t="n">
-        <v>163972</v>
+        <v>165484</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN86" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E87" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F87"/>
       <c r="G87" s="1" t="n">
@@ -10029,10 +10670,10 @@
         <v>43040</v>
       </c>
       <c r="I87" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="J87" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="K87"/>
       <c r="L87"/>
@@ -10106,44 +10747,54 @@
       <c r="AL87" t="n">
         <v>165477</v>
       </c>
+      <c r="AM87" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN87" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E88" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="F88"/>
       <c r="G88" s="1" t="n">
         <v>42961</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>43040</v>
+        <v>42971</v>
       </c>
       <c r="I88" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="J88" t="s">
-        <v>181</v>
-      </c>
-      <c r="K88"/>
-      <c r="L88"/>
+        <v>215</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M88" t="n">
-        <v>1.49949</v>
+        <v>0.042706</v>
       </c>
       <c r="N88"/>
       <c r="O88" t="n">
-        <v>1.49949</v>
+        <v>0.042706</v>
       </c>
       <c r="P88" t="n">
         <v>1</v>
@@ -10170,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>1.49949</v>
+        <v>0.042706</v>
       </c>
       <c r="Y88" t="n">
         <v>0</v>
@@ -10197,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="AG88" t="n">
-        <v>1.49949</v>
+        <v>0.042706</v>
       </c>
       <c r="AH88"/>
       <c r="AI88"/>
@@ -10206,24 +10857,30 @@
         <v>0</v>
       </c>
       <c r="AL88" t="n">
-        <v>165484</v>
+        <v>163039</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN88" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E89" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F89"/>
       <c r="G89" s="1" t="n">
@@ -10233,10 +10890,10 @@
         <v>43040</v>
       </c>
       <c r="I89" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="J89" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="K89"/>
       <c r="L89"/>
@@ -10310,22 +10967,28 @@
       <c r="AL89" t="n">
         <v>165478</v>
       </c>
+      <c r="AM89" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN89" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E90" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="1" t="n">
@@ -10335,10 +10998,10 @@
         <v>43040</v>
       </c>
       <c r="I90" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="J90" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="K90"/>
       <c r="L90"/>
@@ -10412,35 +11075,41 @@
       <c r="AL90" t="n">
         <v>165486</v>
       </c>
+      <c r="AM90" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN90" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E91" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F91"/>
       <c r="G91" s="1" t="n">
         <v>42971</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>43040</v>
+        <v>43053</v>
       </c>
       <c r="I91" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="J91" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="K91"/>
       <c r="L91"/>
@@ -10512,37 +11181,43 @@
         <v>0</v>
       </c>
       <c r="AL91" t="n">
-        <v>165483</v>
+        <v>166030</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN91" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E92" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="1" t="n">
         <v>42971</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>43053</v>
+        <v>43040</v>
       </c>
       <c r="I92" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="J92" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="K92"/>
       <c r="L92"/>
@@ -10614,24 +11289,30 @@
         <v>0</v>
       </c>
       <c r="AL92" t="n">
-        <v>166030</v>
+        <v>165483</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN92" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E93" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="1" t="n">
@@ -10641,10 +11322,10 @@
         <v>43027</v>
       </c>
       <c r="I93" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="J93" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="K93"/>
       <c r="L93"/>
@@ -10718,48 +11399,54 @@
       <c r="AL93" t="n">
         <v>165048</v>
       </c>
+      <c r="AM93" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN93" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="1" t="n">
-        <v>42976</v>
+        <v>42859</v>
       </c>
       <c r="H94" s="1" t="n">
         <v>43055</v>
       </c>
       <c r="I94" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="J94" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="K94" t="n">
         <v>4</v>
       </c>
       <c r="L94" t="n">
-        <v>0.931</v>
+        <v>0.921</v>
       </c>
       <c r="M94" t="n">
-        <v>4.296455</v>
+        <v>4.339848</v>
       </c>
       <c r="N94"/>
       <c r="O94" t="n">
-        <v>4.296455</v>
+        <v>4.339848</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -10786,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="X94" t="n">
-        <v>4.296455</v>
+        <v>4.339848</v>
       </c>
       <c r="Y94" t="n">
         <v>0</v>
@@ -10813,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="AG94" t="n">
-        <v>4.296455</v>
+        <v>4.339848</v>
       </c>
       <c r="AH94"/>
       <c r="AI94"/>
@@ -10822,50 +11509,56 @@
         <v>0</v>
       </c>
       <c r="AL94" t="n">
-        <v>157231</v>
+        <v>165046</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN94" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E95" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="1" t="n">
-        <v>42859</v>
+        <v>42976</v>
       </c>
       <c r="H95" s="1" t="n">
         <v>43055</v>
       </c>
       <c r="I95" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="J95" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="K95" t="n">
         <v>4</v>
       </c>
       <c r="L95" t="n">
-        <v>0.921</v>
+        <v>0.931</v>
       </c>
       <c r="M95" t="n">
-        <v>4.339848</v>
+        <v>4.296455</v>
       </c>
       <c r="N95"/>
       <c r="O95" t="n">
-        <v>4.339848</v>
+        <v>4.296455</v>
       </c>
       <c r="P95" t="n">
         <v>1</v>
@@ -10892,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="X95" t="n">
-        <v>4.339848</v>
+        <v>4.296455</v>
       </c>
       <c r="Y95" t="n">
         <v>0</v>
@@ -10919,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="AG95" t="n">
-        <v>4.339848</v>
+        <v>4.296455</v>
       </c>
       <c r="AH95"/>
       <c r="AI95"/>
@@ -10928,24 +11621,30 @@
         <v>0</v>
       </c>
       <c r="AL95" t="n">
-        <v>165046</v>
+        <v>157231</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN95" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E96" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="1" t="n">
@@ -10955,10 +11654,10 @@
         <v>43055</v>
       </c>
       <c r="I96" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="J96" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="K96" t="n">
         <v>3</v>
@@ -11036,22 +11735,28 @@
       <c r="AL96" t="n">
         <v>157988</v>
       </c>
+      <c r="AM96" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN96" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E97" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="1" t="n">
@@ -11061,10 +11766,10 @@
         <v>43089</v>
       </c>
       <c r="I97" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="J97" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="K97"/>
       <c r="L97"/>
@@ -11138,22 +11843,28 @@
       <c r="AL97" t="n">
         <v>168259</v>
       </c>
+      <c r="AM97" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN97" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="1" t="n">
@@ -11163,10 +11874,10 @@
         <v>43053</v>
       </c>
       <c r="I98" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="J98" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="K98"/>
       <c r="L98"/>
@@ -11240,22 +11951,28 @@
       <c r="AL98" t="n">
         <v>166029</v>
       </c>
+      <c r="AM98" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN98" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E99" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="1" t="n">
@@ -11265,10 +11982,10 @@
         <v>43136</v>
       </c>
       <c r="I99" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="J99" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="K99"/>
       <c r="L99"/>
@@ -11342,22 +12059,28 @@
       <c r="AL99" t="n">
         <v>170284</v>
       </c>
+      <c r="AM99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN99" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E100" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="1" t="n">
@@ -11367,10 +12090,10 @@
         <v>43136</v>
       </c>
       <c r="I100" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="J100" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="K100"/>
       <c r="L100"/>
@@ -11444,22 +12167,28 @@
       <c r="AL100" t="n">
         <v>170285</v>
       </c>
+      <c r="AM100" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN100" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E101" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="1" t="n">
@@ -11469,10 +12198,10 @@
         <v>43136</v>
       </c>
       <c r="I101" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="J101" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="K101"/>
       <c r="L101"/>
@@ -11546,22 +12275,28 @@
       <c r="AL101" t="n">
         <v>170286</v>
       </c>
+      <c r="AM101" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN101" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E102" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="1" t="n">
@@ -11571,10 +12306,10 @@
         <v>43136</v>
       </c>
       <c r="I102" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="J102" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="K102"/>
       <c r="L102"/>
@@ -11648,22 +12383,28 @@
       <c r="AL102" t="n">
         <v>170288</v>
       </c>
+      <c r="AM102" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN102" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E103" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="1" t="n">
@@ -11673,19 +12414,19 @@
         <v>43053</v>
       </c>
       <c r="I103" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="J103" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="K103"/>
       <c r="L103"/>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N103"/>
       <c r="O103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P103" t="n">
         <v>1</v>
@@ -11715,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="Y103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z103" t="n">
         <v>0</v>
@@ -11739,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="AG103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH103"/>
       <c r="AI103"/>
@@ -11748,24 +12489,30 @@
         <v>0</v>
       </c>
       <c r="AL103" t="n">
-        <v>166027</v>
+        <v>166028</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN103" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E104" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="1" t="n">
@@ -11775,19 +12522,19 @@
         <v>43053</v>
       </c>
       <c r="I104" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J104" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N104"/>
       <c r="O104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P104" t="n">
         <v>1</v>
@@ -11817,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="Y104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z104" t="n">
         <v>0</v>
@@ -11841,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="AG104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH104"/>
       <c r="AI104"/>
@@ -11850,24 +12597,30 @@
         <v>0</v>
       </c>
       <c r="AL104" t="n">
-        <v>166028</v>
+        <v>166027</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN104" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E105" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="1" t="n">
@@ -11877,10 +12630,10 @@
         <v>43027</v>
       </c>
       <c r="I105" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="J105" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="K105"/>
       <c r="L105"/>
@@ -11954,22 +12707,28 @@
       <c r="AL105" t="n">
         <v>165047</v>
       </c>
+      <c r="AM105" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN105" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E106" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="1" t="n">
@@ -11979,10 +12738,10 @@
         <v>43027</v>
       </c>
       <c r="I106" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="J106" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="K106"/>
       <c r="L106"/>
@@ -12056,22 +12815,28 @@
       <c r="AL106" t="n">
         <v>165049</v>
       </c>
+      <c r="AM106" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN106" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D107" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E107" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="1" t="n">
@@ -12081,10 +12846,10 @@
         <v>43076</v>
       </c>
       <c r="I107" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K107"/>
       <c r="L107"/>
@@ -12158,22 +12923,26 @@
       <c r="AL107" t="n">
         <v>167631</v>
       </c>
+      <c r="AM107" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E108" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="1" t="n">
@@ -12183,10 +12952,10 @@
         <v>43160</v>
       </c>
       <c r="I108" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K108" t="n">
         <v>2</v>
@@ -12264,22 +13033,28 @@
       <c r="AL108" t="n">
         <v>171123</v>
       </c>
+      <c r="AM108" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN108" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D109" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E109" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="1" t="n">
@@ -12289,10 +13064,10 @@
         <v>43089</v>
       </c>
       <c r="I109" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="J109" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="K109" t="n">
         <v>3.5</v>
@@ -12370,22 +13145,28 @@
       <c r="AL109" t="n">
         <v>165523</v>
       </c>
+      <c r="AM109" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN109" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E110" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="1" t="n">
@@ -12395,10 +13176,10 @@
         <v>43089</v>
       </c>
       <c r="I110" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="J110" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="K110"/>
       <c r="L110"/>
@@ -12472,22 +13253,28 @@
       <c r="AL110" t="n">
         <v>168260</v>
       </c>
+      <c r="AM110" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN110" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E111" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="1" t="n">
@@ -12497,10 +13284,10 @@
         <v>43089</v>
       </c>
       <c r="I111" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="J111" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="K111"/>
       <c r="L111"/>
@@ -12574,22 +13361,28 @@
       <c r="AL111" t="n">
         <v>168261</v>
       </c>
+      <c r="AM111" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN111" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E112" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="1" t="n">
@@ -12599,10 +13392,10 @@
         <v>43088</v>
       </c>
       <c r="I112" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K112" t="n">
         <v>2</v>
@@ -12680,22 +13473,28 @@
       <c r="AL112" t="n">
         <v>168142</v>
       </c>
+      <c r="AM112" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN112" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E113" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="1" t="n">
@@ -12705,10 +13504,10 @@
         <v>43286</v>
       </c>
       <c r="I113" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="J113" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="K113"/>
       <c r="L113"/>
@@ -12782,22 +13581,28 @@
       <c r="AL113" t="n">
         <v>174568</v>
       </c>
+      <c r="AM113" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN113" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D114" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E114" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="1" t="n">
@@ -12807,10 +13612,10 @@
         <v>43133</v>
       </c>
       <c r="I114" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="J114" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="K114"/>
       <c r="L114"/>
@@ -12884,22 +13689,28 @@
       <c r="AL114" t="n">
         <v>170171</v>
       </c>
+      <c r="AM114" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN114" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D115" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E115" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="1" t="n">
@@ -12909,10 +13720,10 @@
         <v>43089</v>
       </c>
       <c r="I115" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="J115" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="K115"/>
       <c r="L115"/>
@@ -12986,22 +13797,28 @@
       <c r="AL115" t="n">
         <v>168257</v>
       </c>
+      <c r="AM115" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN115" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B116" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E116" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="1" t="n">
@@ -13011,10 +13828,10 @@
         <v>43286</v>
       </c>
       <c r="I116" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="J116" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="K116"/>
       <c r="L116"/>
@@ -13088,22 +13905,28 @@
       <c r="AL116" t="n">
         <v>174569</v>
       </c>
+      <c r="AM116" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN116" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D117" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E117" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="1" t="n">
@@ -13113,10 +13936,10 @@
         <v>43650</v>
       </c>
       <c r="I117" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="J117" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="K117" t="n">
         <v>0.7</v>
@@ -13194,22 +14017,28 @@
       <c r="AL117" t="n">
         <v>170854</v>
       </c>
+      <c r="AM117" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN117" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="1" t="n">
@@ -13219,10 +14048,10 @@
         <v>43151</v>
       </c>
       <c r="I118" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="J118" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="K118" t="n">
         <v>0.5</v>
@@ -13300,22 +14129,28 @@
       <c r="AL118" t="n">
         <v>170825</v>
       </c>
+      <c r="AM118" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN118" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E119" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="1" t="n">
@@ -13325,10 +14160,10 @@
         <v>43154</v>
       </c>
       <c r="I119" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K119" t="n">
         <v>0.169</v>
@@ -13406,22 +14241,28 @@
       <c r="AL119" t="n">
         <v>170968</v>
       </c>
+      <c r="AM119" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN119" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E120" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="1" t="n">
@@ -13431,10 +14272,10 @@
         <v>43179</v>
       </c>
       <c r="I120" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K120"/>
       <c r="L120"/>
@@ -13508,22 +14349,26 @@
       <c r="AL120" t="n">
         <v>171709</v>
       </c>
+      <c r="AM120" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E121" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="1" t="n">
@@ -13533,10 +14378,10 @@
         <v>43237</v>
       </c>
       <c r="I121" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="J121" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="K121" t="n">
         <v>1.25</v>
@@ -13614,22 +14459,28 @@
       <c r="AL121" t="n">
         <v>174617</v>
       </c>
+      <c r="AM121" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN121" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E122" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="1" t="n">
@@ -13639,10 +14490,10 @@
         <v>43655</v>
       </c>
       <c r="I122" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="J122" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="K122" t="n">
         <v>1.8</v>
@@ -13720,22 +14571,28 @@
       <c r="AL122" t="n">
         <v>171631</v>
       </c>
+      <c r="AM122" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN122" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D123" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E123" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="1" t="n">
@@ -13745,10 +14602,10 @@
         <v>43703</v>
       </c>
       <c r="I123" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="J123" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="K123" t="n">
         <v>0.667737</v>
@@ -13826,22 +14683,28 @@
       <c r="AL123" t="n">
         <v>195291</v>
       </c>
+      <c r="AM123" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN123" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C124" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E124" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="1" t="n">
@@ -13851,10 +14714,10 @@
         <v>43263</v>
       </c>
       <c r="I124" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="J124" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="K124" t="n">
         <v>0.2</v>
@@ -13932,22 +14795,28 @@
       <c r="AL124" t="n">
         <v>176336</v>
       </c>
+      <c r="AM124" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN124" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C125" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E125" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="1" t="n">
@@ -13957,10 +14826,10 @@
         <v>43332</v>
       </c>
       <c r="I125" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="J125" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="K125"/>
       <c r="L125"/>
@@ -14034,22 +14903,28 @@
       <c r="AL125" t="n">
         <v>179000</v>
       </c>
+      <c r="AM125" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN125" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D126" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E126" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="1" t="n">
@@ -14059,10 +14934,10 @@
         <v>43381</v>
       </c>
       <c r="I126" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="J126" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="K126"/>
       <c r="L126"/>
@@ -14135,6 +15010,12 @@
       </c>
       <c r="AL126" t="n">
         <v>181218</v>
+      </c>
+      <c r="AM126" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN126" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
